--- a/legendre_out/DATA/p1/p1IntegrandDataPoints2.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints2.000000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.745075119653346</v>
+        <v>3.99602</v>
       </c>
       <c r="C2" t="n">
-        <v>1.7551675133787e-13</v>
+        <v>4.299869109655768e-15</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.762300554123211</v>
+        <v>4.00097</v>
       </c>
       <c r="C3" t="n">
-        <v>2.12308651283754e-13</v>
+        <v>1.166917222798576e-14</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.779337451499375</v>
+        <v>4.00294</v>
       </c>
       <c r="C4" t="n">
-        <v>2.911465208497953e-13</v>
+        <v>1.740517551950868e-14</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.788087286620635</v>
+        <v>4.00697</v>
       </c>
       <c r="C5" t="n">
-        <v>4.020974712876032e-13</v>
+        <v>1.790914414964583e-14</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.796605735308717</v>
+        <v>4.00909</v>
       </c>
       <c r="C6" t="n">
-        <v>5.275062886418055e-13</v>
+        <v>1.845417178786326e-14</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.805055625053636</v>
+        <v>4.01003</v>
       </c>
       <c r="C7" t="n">
-        <v>1.06193473692134e-12</v>
+        <v>1.944247347990236e-14</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.813539794270136</v>
+        <v>4.01507</v>
       </c>
       <c r="C8" t="n">
-        <v>1.718177832526328e-12</v>
+        <v>1.729406164170087e-14</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.817867577557342</v>
+        <v>4.01911</v>
       </c>
       <c r="C9" t="n">
-        <v>4.606525558982244e-12</v>
+        <v>1.871905492019598e-14</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.82226391978771</v>
+        <v>4.01992</v>
       </c>
       <c r="C10" t="n">
-        <v>7.279759908970607e-12</v>
+        <v>1.386567187327758e-14</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.830696669796837</v>
+        <v>4.02504</v>
       </c>
       <c r="C11" t="n">
-        <v>7.658557162914383e-12</v>
+        <v>1.713233021122845e-14</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.837569703848993</v>
+        <v>4.02998</v>
       </c>
       <c r="C12" t="n">
-        <v>5.947452464743892e-12</v>
+        <v>1.308331055301608e-14</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.844554146183789</v>
+        <v>4.03514</v>
       </c>
       <c r="C13" t="n">
-        <v>2.969577662558198e-12</v>
+        <v>1.145747144379806e-14</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.846319538970252</v>
+        <v>4.26996</v>
       </c>
       <c r="C14" t="n">
-        <v>2.252479027427021e-12</v>
+        <v>6.208767815034666e-15</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.847930674134597</v>
+        <v>4.29005</v>
       </c>
       <c r="C15" t="n">
-        <v>2.83023293541183e-12</v>
+        <v>4.427384630344029e-15</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.84977319573212</v>
+        <v>4.291119999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>1.237600522919202e-12</v>
+        <v>4.507289425604199e-15</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.852147049139162</v>
+        <v>4.29319</v>
       </c>
       <c r="C17" t="n">
-        <v>8.838158710951744e-13</v>
+        <v>3.875278279337837e-15</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.856414843351097</v>
+        <v>4.2942</v>
       </c>
       <c r="C18" t="n">
-        <v>4.994029934101625e-13</v>
+        <v>3.953748757667007e-15</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.865190388076044</v>
+        <v>4.29515</v>
       </c>
       <c r="C19" t="n">
-        <v>2.499291566475459e-13</v>
+        <v>5.066107572377036e-15</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.866878652051449</v>
+        <v>4.29615</v>
       </c>
       <c r="C20" t="n">
-        <v>1.900244904993891e-13</v>
+        <v>4.145575421019135e-15</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.869363913741131</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>1.892776241610876e-13</v>
+        <v>4.80185098907192e-15</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.873640277820963</v>
+        <v>4.298080000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>2.212729085227826e-13</v>
+        <v>9.098829055847608e-15</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.878070899522913</v>
+        <v>4.299090000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>2.755722701283236e-13</v>
+        <v>1.014676786599368e-14</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.881644534435317</v>
+        <v>4.30105</v>
       </c>
       <c r="C24" t="n">
-        <v>2.612917156480773e-13</v>
+        <v>1.335520390791367e-14</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.88648650979625</v>
+        <v>4.3031</v>
       </c>
       <c r="C25" t="n">
-        <v>5.435557071638174e-13</v>
+        <v>1.449218784927906e-14</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.890925701366096</v>
+        <v>4.30523</v>
       </c>
       <c r="C26" t="n">
-        <v>8.081453327396479e-13</v>
+        <v>1.260034396035451e-14</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.899118495074151</v>
+        <v>4.30725</v>
       </c>
       <c r="C27" t="n">
-        <v>1.876761532152885e-12</v>
+        <v>1.519921347163371e-14</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.908014017949633</v>
+        <v>4.3093</v>
       </c>
       <c r="C28" t="n">
-        <v>4.516561709490377e-12</v>
+        <v>1.375151033684508e-14</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.916541036505611</v>
+        <v>4.30996</v>
       </c>
       <c r="C29" t="n">
-        <v>4.252670896635971e-12</v>
+        <v>1.42796092876615e-14</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.925025205722112</v>
+        <v>4.31117</v>
       </c>
       <c r="C30" t="n">
-        <v>2.212411012052404e-12</v>
+        <v>1.393552785091776e-14</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.933637922957044</v>
+        <v>4.31311</v>
       </c>
       <c r="C31" t="n">
-        <v>1.103161038875833e-12</v>
+        <v>1.378746808299852e-14</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.942370618342513</v>
+        <v>4.31513</v>
       </c>
       <c r="C32" t="n">
-        <v>5.285402730795578e-13</v>
+        <v>1.292570895536727e-14</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.950700529936895</v>
+        <v>4.3172</v>
       </c>
       <c r="C33" t="n">
-        <v>5.226312573976168e-13</v>
+        <v>1.186052701986842e-14</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.959476074661841</v>
+        <v>4.31917</v>
       </c>
       <c r="C34" t="n">
-        <v>3.506653018999225e-13</v>
+        <v>1.402634446198244e-14</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.967797416388328</v>
+        <v>4.32116</v>
       </c>
       <c r="C35" t="n">
-        <v>2.977489180105104e-13</v>
+        <v>1.216822246864424e-14</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.97227945729765</v>
+        <v>4.32298</v>
       </c>
       <c r="C36" t="n">
-        <v>1.86790790956664e-13</v>
+        <v>1.169993558180033e-14</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.976384424019573</v>
+        <v>4.32521</v>
       </c>
       <c r="C37" t="n">
-        <v>2.076691672800796e-13</v>
+        <v>7.542012723325709e-15</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.984954291915029</v>
+        <v>4.32711</v>
       </c>
       <c r="C38" t="n">
-        <v>4.2509163069212e-13</v>
+        <v>7.632618360533245e-15</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.002231145592266</v>
+        <v>4.32908</v>
       </c>
       <c r="C39" t="n">
-        <v>2.609208207579555e-13</v>
+        <v>6.229485762343484e-15</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.010826723091408</v>
+        <v>4.33012</v>
       </c>
       <c r="C40" t="n">
-        <v>1.113318659528837e-13</v>
+        <v>7.578912672723709e-15</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.019208053893163</v>
+        <v>4.33119</v>
       </c>
       <c r="C41" t="n">
-        <v>9.177688025727739e-14</v>
+        <v>1.135661584603983e-14</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.036424918495132</v>
+        <v>4.33324</v>
       </c>
       <c r="C42" t="n">
-        <v>7.640474249403669e-14</v>
+        <v>1.149239611063845e-14</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.053547514550251</v>
+        <v>4.33515</v>
       </c>
       <c r="C43" t="n">
-        <v>8.913448683270357e-14</v>
+        <v>1.062779787555323e-14</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.070687250341162</v>
+        <v>4.34004</v>
       </c>
       <c r="C44" t="n">
-        <v>1.46524824148246e-13</v>
+        <v>9.347833140627199e-15</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.075126441911007</v>
+        <v>4.34488</v>
       </c>
       <c r="C45" t="n">
-        <v>3.314309738493143e-13</v>
+        <v>9.608809762917669e-15</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.078297293032326</v>
+        <v>4.34998</v>
       </c>
       <c r="C46" t="n">
-        <v>3.661268614442696e-13</v>
+        <v>9.067106878502036e-15</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.087861265603653</v>
+        <v>4.37005</v>
       </c>
       <c r="C47" t="n">
-        <v>4.054405058973911e-13</v>
+        <v>5.451893650144661e-15</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.09212905981559</v>
+        <v>4.39015</v>
       </c>
       <c r="C48" t="n">
-        <v>4.107011230202396e-13</v>
+        <v>6.485645877716763e-15</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.096551111649645</v>
+        <v>4.41003</v>
       </c>
       <c r="C49" t="n">
-        <v>3.574130598479787e-13</v>
+        <v>8.748491254083186e-15</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.105069560337727</v>
+        <v>4.42024</v>
       </c>
       <c r="C50" t="n">
-        <v>2.989789084641561e-13</v>
+        <v>1.198046321174103e-14</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.113468030875272</v>
+        <v>4.43018</v>
       </c>
       <c r="C51" t="n">
-        <v>2.146061115205296e-13</v>
+        <v>1.558791100725396e-14</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.122132167317578</v>
+        <v>4.44004</v>
       </c>
       <c r="C52" t="n">
-        <v>1.868769478310354e-13</v>
+        <v>3.112468327255358e-14</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.12395754917931</v>
+        <v>4.44994</v>
       </c>
       <c r="C53" t="n">
-        <v>1.740204321517112e-13</v>
+        <v>4.994679756255756e-14</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.126622778094797</v>
+        <v>4.45499</v>
       </c>
       <c r="C54" t="n">
-        <v>1.730497556141996e-13</v>
+        <v>1.33350054223153e-13</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.13072774481672</v>
+        <v>4.46012</v>
       </c>
       <c r="C55" t="n">
-        <v>1.644634802136318e-13</v>
+        <v>2.098399209803066e-13</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.139151924957952</v>
+        <v>4.469959999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>1.582985394719274e-13</v>
+        <v>2.189636684335511e-13</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.156411638899399</v>
+        <v>4.477980000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>1.681611800533668e-13</v>
+        <v>1.689141312474356e-13</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.170346244097408</v>
+        <v>4.48613</v>
       </c>
       <c r="C58" t="n">
-        <v>2.086106281345975e-13</v>
+        <v>8.377081624111158e-14</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.190571132330683</v>
+        <v>4.48819</v>
       </c>
       <c r="C59" t="n">
-        <v>3.056833093933349e-13</v>
+        <v>6.343317813635901e-14</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.199158139961929</v>
+        <v>4.490069999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>4.460188859093017e-13</v>
+        <v>7.957935525995218e-14</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.207916544951084</v>
+        <v>4.49222</v>
       </c>
       <c r="C61" t="n">
-        <v>5.61133152394222e-13</v>
+        <v>3.473633088131082e-14</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.216340725092316</v>
+        <v>4.49499</v>
       </c>
       <c r="C62" t="n">
-        <v>7.13214471386417e-13</v>
+        <v>2.474953558757923e-14</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.221645473319603</v>
+        <v>4.499969999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>8.625236599316863e-13</v>
+        <v>1.392713545691922e-14</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.225107699949367</v>
+        <v>4.51021</v>
       </c>
       <c r="C64" t="n">
-        <v>9.149215947823897e-13</v>
+        <v>6.910945721715022e-15</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.230875221043007</v>
+        <v>4.51218</v>
       </c>
       <c r="C65" t="n">
-        <v>1.102025118382226e-12</v>
+        <v>5.245902604959493e-15</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.23929940118424</v>
+        <v>4.51508</v>
       </c>
       <c r="C66" t="n">
-        <v>1.292278707837295e-12</v>
+        <v>5.212725726158015e-15</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.24231599468344</v>
+        <v>4.52007</v>
       </c>
       <c r="C67" t="n">
-        <v>1.284614362405242e-12</v>
+        <v>6.06869959318911e-15</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.24787783894759</v>
+        <v>4.52524</v>
       </c>
       <c r="C68" t="n">
-        <v>1.397913788067916e-12</v>
+        <v>7.525577651503414e-15</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.252257041442167</v>
+        <v>4.529409999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>1.394457100314584e-12</v>
+        <v>7.110944042448113e-15</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.25472516339606</v>
+        <v>4.53506</v>
       </c>
       <c r="C70" t="n">
-        <v>1.365856271230711e-12</v>
+        <v>1.472345180595171e-14</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.25739896217944</v>
+        <v>4.54024</v>
       </c>
       <c r="C71" t="n">
-        <v>1.323262081118584e-12</v>
+        <v>2.179658103403456e-14</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.259258623512755</v>
+        <v>4.5498</v>
       </c>
       <c r="C72" t="n">
-        <v>1.312855641829493e-12</v>
+        <v>5.021840861069867e-14</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.2616239070519</v>
+        <v>4.56018</v>
       </c>
       <c r="C73" t="n">
-        <v>1.230450853736093e-12</v>
+        <v>1.198177750082778e-13</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.263192192876769</v>
+        <v>4.570130000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>1.188198324288721e-12</v>
+        <v>1.118895383485427e-13</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.271830619715387</v>
+        <v>4.580030000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>9.319053693823569e-13</v>
+        <v>5.773324136077717e-14</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.27642406890735</v>
+        <v>4.59008</v>
       </c>
       <c r="C76" t="n">
-        <v>8.427316758816292e-13</v>
+        <v>2.854811340851473e-14</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.28036620813926</v>
+        <v>4.60027</v>
       </c>
       <c r="C77" t="n">
-        <v>6.93298310876038e-13</v>
+        <v>1.356264832857243e-14</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.28891036643103</v>
+        <v>4.60999</v>
       </c>
       <c r="C78" t="n">
-        <v>5.14342910583045e-13</v>
+        <v>1.330329079189339e-14</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.293495245755098</v>
+        <v>4.62023</v>
       </c>
       <c r="C79" t="n">
-        <v>4.5819115073606e-13</v>
+        <v>8.850471311679351e-15</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.297651631684394</v>
+        <v>4.62994</v>
       </c>
       <c r="C80" t="n">
-        <v>3.849673969323461e-13</v>
+        <v>7.454605874115493e-15</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.300136893374075</v>
+        <v>4.63517</v>
       </c>
       <c r="C81" t="n">
-        <v>3.615945643578061e-13</v>
+        <v>4.656346241010718e-15</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.300239731788821</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>3.623015694172778e-13</v>
+        <v>5.156270541787413e-15</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.30191942589633</v>
+        <v>4.64996</v>
       </c>
       <c r="C83" t="n">
-        <v>3.552555238331617e-13</v>
+        <v>1.04674914727936e-14</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.306187220108267</v>
+        <v>4.67012</v>
       </c>
       <c r="C84" t="n">
-        <v>3.368962048966775e-13</v>
+        <v>6.318353389328203e-15</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.308783890080591</v>
+        <v>4.68015</v>
       </c>
       <c r="C85" t="n">
-        <v>3.345318950830188e-13</v>
+        <v>2.673623442078841e-15</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.310729250092858</v>
+        <v>4.68993</v>
       </c>
       <c r="C86" t="n">
-        <v>3.346750140523078e-13</v>
+        <v>2.186199090404597e-15</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.31302597468884</v>
+        <v>4.71002</v>
       </c>
       <c r="C87" t="n">
-        <v>3.693344266257992e-13</v>
+        <v>1.789934238935891e-15</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.315699773472222</v>
+        <v>4.73</v>
       </c>
       <c r="C88" t="n">
-        <v>3.967926192824787e-13</v>
+        <v>2.053820612251963e-15</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.318107906350845</v>
+        <v>4.75</v>
       </c>
       <c r="C89" t="n">
-        <v>4.117555275161654e-13</v>
+        <v>3.320631793138536e-15</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.320910253152659</v>
+        <v>4.75518</v>
       </c>
       <c r="C90" t="n">
-        <v>4.089217534730155e-13</v>
+        <v>7.478869135767212e-15</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.323318386031281</v>
+        <v>4.75888</v>
       </c>
       <c r="C91" t="n">
-        <v>3.957429514373328e-13</v>
+        <v>8.236469544359882e-15</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.327757577601127</v>
+        <v>4.77004</v>
       </c>
       <c r="C92" t="n">
-        <v>3.669513384551147e-13</v>
+        <v>9.036806992413511e-15</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.331931103266214</v>
+        <v>4.77502</v>
       </c>
       <c r="C93" t="n">
-        <v>3.076928559865557e-13</v>
+        <v>9.116311629403828e-15</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.340535250633251</v>
+        <v>4.780180000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>1.837134608140976e-13</v>
+        <v>7.899584067337196e-15</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.344845894184665</v>
+        <v>4.79012</v>
       </c>
       <c r="C95" t="n">
-        <v>1.513208143928669e-13</v>
+        <v>6.553787684780581e-15</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.348762323812888</v>
+        <v>4.799919999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>1.183276316210056e-13</v>
+        <v>4.666189374665202e-15</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.357083665539375</v>
+        <v>4.81003</v>
       </c>
       <c r="C97" t="n">
-        <v>8.730724744515067e-14</v>
+        <v>4.029329227485854e-15</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.362054188918739</v>
+        <v>4.81216</v>
       </c>
       <c r="C98" t="n">
-        <v>7.99103516374812e-14</v>
+        <v>3.745499081160181e-15</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.365250749643743</v>
+        <v>4.81527</v>
       </c>
       <c r="C99" t="n">
-        <v>7.724303590171774e-14</v>
+        <v>3.715007702909363e-15</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.367855989483961</v>
+        <v>4.82006</v>
       </c>
       <c r="C100" t="n">
-        <v>7.77224141960852e-14</v>
+        <v>3.516673700781436e-15</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.369681371345694</v>
+        <v>4.82989</v>
       </c>
       <c r="C101" t="n">
-        <v>7.32434373521074e-14</v>
+        <v>3.357354136494342e-15</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.370624056814194</v>
+        <v>4.85003</v>
       </c>
       <c r="C102" t="n">
-        <v>7.246290696629819e-14</v>
+        <v>3.507424364092736e-15</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.371001131001594</v>
+        <v>4.86629</v>
       </c>
       <c r="C103" t="n">
-        <v>7.266654568962647e-14</v>
+        <v>4.292788812686719e-15</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.371241087302666</v>
+        <v>4.88989</v>
       </c>
       <c r="C104" t="n">
-        <v>7.230897810827734e-14</v>
+        <v>6.168368229509702e-15</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.37310074863598</v>
+        <v>4.89991</v>
       </c>
       <c r="C105" t="n">
-        <v>7.05064378549744e-14</v>
+        <v>8.925673433383414e-15</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.37479758247928</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>6.858419402935027e-14</v>
+        <v>1.113450154199648e-14</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.376545835529954</v>
+        <v>4.91996</v>
       </c>
       <c r="C107" t="n">
-        <v>6.801972233091508e-14</v>
+        <v>1.403726976943051e-14</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.378156970694299</v>
+        <v>4.92615</v>
       </c>
       <c r="C108" t="n">
-        <v>6.050903409257864e-14</v>
+        <v>1.688895894910399e-14</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.379236774049127</v>
+        <v>4.930190000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>6.118731761094589e-14</v>
+        <v>1.785500111005667e-14</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.379845234669704</v>
+        <v>4.93692</v>
       </c>
       <c r="C110" t="n">
-        <v>6.135247500801264e-14</v>
+        <v>2.138662551392562e-14</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.382493323849399</v>
+        <v>4.94675</v>
       </c>
       <c r="C111" t="n">
-        <v>6.027863363175042e-14</v>
+        <v>2.487508699087675e-14</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.386743978325545</v>
+        <v>4.95027</v>
       </c>
       <c r="C112" t="n">
-        <v>5.197303487238153e-14</v>
+        <v>2.465543792493853e-14</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.391003202669586</v>
+        <v>4.95676</v>
       </c>
       <c r="C113" t="n">
-        <v>4.411355443293413e-14</v>
+        <v>2.668588381918653e-14</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.395073889919927</v>
+        <v>4.961869999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>4.10095341323532e-14</v>
+        <v>2.650726464106301e-14</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.396290811161082</v>
+        <v>4.96475</v>
       </c>
       <c r="C115" t="n">
-        <v>3.972916858246308e-14</v>
+        <v>2.590161933064127e-14</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.399607350036622</v>
+        <v>4.96787</v>
       </c>
       <c r="C116" t="n">
-        <v>4.834384735159314e-14</v>
+        <v>2.502899754281247e-14</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.403952273059619</v>
+        <v>4.97004</v>
       </c>
       <c r="C117" t="n">
-        <v>8.18732272304516e-14</v>
+        <v>2.478749152290094e-14</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.406326126466659</v>
+        <v>4.9728</v>
       </c>
       <c r="C118" t="n">
-        <v>9.93270321773598e-14</v>
+        <v>2.31784974058962e-14</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.408974215646356</v>
+        <v>4.97463</v>
       </c>
       <c r="C119" t="n">
-        <v>1.041032169691615e-13</v>
+        <v>2.234860815031935e-14</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.411759422712378</v>
+        <v>4.98471</v>
       </c>
       <c r="C120" t="n">
-        <v>1.048030403827292e-13</v>
+        <v>1.738204688584772e-14</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.41349053602726</v>
+        <v>4.990069999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>1.057450589408209e-13</v>
+        <v>1.564901058691209e-14</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.414321813213119</v>
+        <v>4.994669999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>1.060037551515031e-13</v>
+        <v>1.282507891795976e-14</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.419515153157765</v>
+        <v>5.00464</v>
       </c>
       <c r="C123" t="n">
-        <v>9.962519834669801e-14</v>
+        <v>9.436259153713157e-15</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.421511932377406</v>
+        <v>5.00999</v>
       </c>
       <c r="C124" t="n">
-        <v>9.041789549557689e-14</v>
+        <v>8.368851575587374e-15</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.430664551289752</v>
+        <v>5.01484</v>
       </c>
       <c r="C125" t="n">
-        <v>5.399570380834709e-14</v>
+        <v>7.003181247254655e-15</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.447624319854858</v>
+        <v>5.01774</v>
       </c>
       <c r="C126" t="n">
-        <v>3.203914781219427e-14</v>
+        <v>6.562181850602049e-15</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.464926883135782</v>
+        <v>5.01786</v>
       </c>
       <c r="C127" t="n">
-        <v>2.652794466424134e-14</v>
+        <v>6.574357856058399e-15</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.482066618926692</v>
+        <v>5.019819999999999</v>
       </c>
       <c r="C128" t="n">
-        <v>2.790388649594887e-14</v>
+        <v>6.436024013978534e-15</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.490182283823687</v>
+        <v>5.0248</v>
       </c>
       <c r="C129" t="n">
-        <v>3.747189346300297e-14</v>
+        <v>6.078246877661932e-15</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.493233156794469</v>
+        <v>5.027830000000001</v>
       </c>
       <c r="C130" t="n">
-        <v>4.115591973985586e-14</v>
+        <v>6.020434736375772e-15</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.499292053396556</v>
+        <v>5.0301</v>
       </c>
       <c r="C131" t="n">
-        <v>6.048451601646192e-14</v>
+        <v>6.011676359167152e-15</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.507699093801998</v>
+        <v>5.032780000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>7.692875380367746e-14</v>
+        <v>6.619517348614668e-15</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.512069726428679</v>
+        <v>5.0359</v>
       </c>
       <c r="C133" t="n">
-        <v>7.823207623963227e-14</v>
+        <v>7.09325856849615e-15</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.516303241169035</v>
+        <v>5.03871</v>
       </c>
       <c r="C134" t="n">
-        <v>7.359126499770352e-14</v>
+        <v>7.343600262370712e-15</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.520571035380971</v>
+        <v>5.041980000000001</v>
       </c>
       <c r="C135" t="n">
-        <v>6.493662515586376e-14</v>
+        <v>7.273298699712147e-15</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.520622454588343</v>
+        <v>5.04479</v>
       </c>
       <c r="C136" t="n">
-        <v>6.428808424190522e-14</v>
+        <v>7.022500554666408e-15</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.524727421310266</v>
+        <v>5.04997</v>
       </c>
       <c r="C137" t="n">
-        <v>5.633235607048724e-14</v>
+        <v>6.48366247207617e-15</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.529132333408531</v>
+        <v>5.05484</v>
       </c>
       <c r="C138" t="n">
-        <v>4.68457461617415e-14</v>
+        <v>5.414699695470833e-15</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.533597234582063</v>
+        <v>5.06488</v>
       </c>
       <c r="C139" t="n">
-        <v>4.187353258638355e-14</v>
+        <v>3.206121031550295e-15</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.535979657856999</v>
+        <v>5.06991</v>
       </c>
       <c r="C140" t="n">
-        <v>4.06600856759471e-14</v>
+        <v>2.629813720578471e-15</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.540033205371549</v>
+        <v>5.07448</v>
       </c>
       <c r="C141" t="n">
-        <v>3.941243473003344e-14</v>
+        <v>2.048639950493092e-15</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.541790028290118</v>
+        <v>5.08419</v>
       </c>
       <c r="C142" t="n">
-        <v>3.863582104873171e-14</v>
+        <v>1.499445390135361e-15</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.54406961315031</v>
+        <v>5.08999</v>
       </c>
       <c r="C143" t="n">
-        <v>3.581449720448696e-14</v>
+        <v>1.365819481400076e-15</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.54908298586915</v>
+        <v>5.093719999999999</v>
       </c>
       <c r="C144" t="n">
-        <v>3.917813115781226e-14</v>
+        <v>1.316150181768354e-15</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.553067974440538</v>
+        <v>5.09676</v>
       </c>
       <c r="C145" t="n">
-        <v>4.425288516162331e-14</v>
+        <v>1.32098199156501e-15</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.557044393144028</v>
+        <v>5.09889</v>
       </c>
       <c r="C146" t="n">
-        <v>4.91803633999279e-14</v>
+        <v>1.242658409276641e-15</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.561577853260723</v>
+        <v>5.09999</v>
       </c>
       <c r="C147" t="n">
-        <v>5.442332576927679e-14</v>
+        <v>1.228294197801513e-15</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.56575137892581</v>
+        <v>5.10043</v>
       </c>
       <c r="C148" t="n">
-        <v>6.173197352479935e-14</v>
+        <v>1.231296385920266e-15</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.570207710231447</v>
+        <v>5.100709999999999</v>
       </c>
       <c r="C149" t="n">
-        <v>6.811767819143844e-14</v>
+        <v>1.224952960652664e-15</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.570233419835134</v>
+        <v>5.10288</v>
       </c>
       <c r="C150" t="n">
-        <v>6.494435265803057e-14</v>
+        <v>1.1922682456181e-15</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.574141279595461</v>
+        <v>5.10486</v>
       </c>
       <c r="C151" t="n">
-        <v>6.421537790428487e-14</v>
+        <v>1.157859137997405e-15</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.578657599976365</v>
+        <v>5.1069</v>
       </c>
       <c r="C152" t="n">
-        <v>5.636481902402144e-14</v>
+        <v>1.146387404440129e-15</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.578820427466379</v>
+        <v>5.10878</v>
       </c>
       <c r="C153" t="n">
-        <v>5.532438312049888e-14</v>
+        <v>1.018214534384155e-15</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.582256944492457</v>
+        <v>5.110040000000001</v>
       </c>
       <c r="C154" t="n">
-        <v>4.821849556782524e-14</v>
+        <v>1.028552421569586e-15</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.583388167054657</v>
+        <v>5.11075</v>
       </c>
       <c r="C155" t="n">
-        <v>4.59600490121351e-14</v>
+        <v>1.030721290909791e-15</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.583662402827311</v>
+        <v>5.11384</v>
       </c>
       <c r="C156" t="n">
-        <v>4.472470480100535e-14</v>
+        <v>1.010087607024883e-15</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.586636146987034</v>
+        <v>5.1188</v>
       </c>
       <c r="C157" t="n">
-        <v>5.609946385804378e-14</v>
+        <v>8.673339144710741e-16</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.58796447651083</v>
+        <v>5.123769999999999</v>
       </c>
       <c r="C158" t="n">
-        <v>4.870926670499466e-14</v>
+        <v>7.331440385627084e-16</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.591649519705875</v>
+        <v>5.12852</v>
       </c>
       <c r="C159" t="n">
-        <v>5.058437314478749e-14</v>
+        <v>6.788758735065506e-16</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.593303504209699</v>
+        <v>5.12994</v>
       </c>
       <c r="C160" t="n">
-        <v>4.547918841274775e-14</v>
+        <v>6.569061115786685e-16</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.595068896996162</v>
+        <v>5.13381</v>
       </c>
       <c r="C161" t="n">
-        <v>4.228223290833842e-14</v>
+        <v>7.96783693178096e-16</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.596757160971567</v>
+        <v>5.13888</v>
       </c>
       <c r="C162" t="n">
-        <v>3.98016319838912e-14</v>
+        <v>1.343736471517106e-15</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.598633962040672</v>
+        <v>5.14165</v>
       </c>
       <c r="C163" t="n">
-        <v>3.707749014204069e-14</v>
+        <v>1.626452759752501e-15</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.600339365751868</v>
+        <v>5.144740000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>3.397954343654838e-14</v>
+        <v>1.700296371892107e-15</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.601719114483036</v>
+        <v>5.14799</v>
       </c>
       <c r="C165" t="n">
-        <v>3.418041121721247e-14</v>
+        <v>1.707116600251527e-15</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.606132596449195</v>
+        <v>5.15001</v>
       </c>
       <c r="C166" t="n">
-        <v>1.717848467564457e-14</v>
+        <v>1.719576325622063e-15</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.610666056565891</v>
+        <v>5.150980000000001</v>
       </c>
       <c r="C167" t="n">
-        <v>6.941721096658632e-15</v>
+        <v>1.722396258789113e-15</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.613091329180303</v>
+        <v>5.15704</v>
       </c>
       <c r="C168" t="n">
-        <v>4.248859805328668e-15</v>
+        <v>1.610635371665059e-15</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.613451263631914</v>
+        <v>5.15937</v>
       </c>
       <c r="C169" t="n">
-        <v>5.985126337451564e-15</v>
+        <v>1.458957987548687e-15</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.613896896762476</v>
+        <v>5.17005</v>
       </c>
       <c r="C170" t="n">
-        <v>3.713575219057467e-15</v>
+        <v>8.635727680887641e-16</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.615696569020522</v>
+        <v>5.18984</v>
       </c>
       <c r="C171" t="n">
-        <v>2.990675167725753e-15</v>
+        <v>5.040680114264334e-16</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.619038817499749</v>
+        <v>5.210030000000001</v>
       </c>
       <c r="C172" t="n">
-        <v>2.514824263740584e-15</v>
+        <v>4.104271568044079e-16</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.621798314962087</v>
+        <v>5.23003</v>
       </c>
       <c r="C173" t="n">
-        <v>2.558531305176189e-15</v>
+        <v>4.24609743854153e-16</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.630650988498092</v>
+        <v>5.2395</v>
       </c>
       <c r="C174" t="n">
-        <v>3.41965326911162e-15</v>
+        <v>5.657418107061305e-16</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.639795037542543</v>
+        <v>5.24306</v>
       </c>
       <c r="C175" t="n">
-        <v>6.095101487863047e-15</v>
+        <v>6.195296024435586e-16</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.64860486173907</v>
+        <v>5.25013</v>
       </c>
       <c r="C176" t="n">
-        <v>6.496956248881353e-15</v>
+        <v>9.05161776896551e-16</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.658074565763548</v>
+        <v>5.25994</v>
       </c>
       <c r="C177" t="n">
-        <v>5.416359501725607e-15</v>
+        <v>1.141919656868087e-15</v>
       </c>
     </row>
     <row r="178">
@@ -2319,10 +2319,505 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.661373964903298</v>
+        <v>5.26504</v>
       </c>
       <c r="C178" t="n">
-        <v>4.748156924511959e-15</v>
+        <v>1.15636214284796e-15</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.26998</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1.083315837049286e-15</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.27496</v>
+      </c>
+      <c r="C180" t="n">
+        <v>9.519714817578297e-16</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.27502</v>
+      </c>
+      <c r="C181" t="n">
+        <v>9.424169462857798e-16</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.279809999999999</v>
+      </c>
+      <c r="C182" t="n">
+        <v>8.225160621813576e-16</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.28495</v>
+      </c>
+      <c r="C183" t="n">
+        <v>6.810897985796202e-16</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.29016</v>
+      </c>
+      <c r="C184" t="n">
+        <v>6.061726437149768e-16</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.29294</v>
+      </c>
+      <c r="C185" t="n">
+        <v>5.872502589348052e-16</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5.29767</v>
+      </c>
+      <c r="C186" t="n">
+        <v>5.670008147151687e-16</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.29972</v>
+      </c>
+      <c r="C187" t="n">
+        <v>5.548835161865589e-16</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5.30238</v>
+      </c>
+      <c r="C188" t="n">
+        <v>5.132299298194303e-16</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5.30823</v>
+      </c>
+      <c r="C189" t="n">
+        <v>5.587129252807063e-16</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5.312880000000001</v>
+      </c>
+      <c r="C190" t="n">
+        <v>6.286528852820344e-16</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5.31752</v>
+      </c>
+      <c r="C191" t="n">
+        <v>6.95967531578138e-16</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5.32281</v>
+      </c>
+      <c r="C192" t="n">
+        <v>7.667892435453539e-16</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5.32768</v>
+      </c>
+      <c r="C193" t="n">
+        <v>8.662557609628626e-16</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5.33288</v>
+      </c>
+      <c r="C194" t="n">
+        <v>9.517479107873612e-16</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5.33291</v>
+      </c>
+      <c r="C195" t="n">
+        <v>9.073872594432011e-16</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5.33747</v>
+      </c>
+      <c r="C196" t="n">
+        <v>8.938138497145021e-16</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5.34274</v>
+      </c>
+      <c r="C197" t="n">
+        <v>7.811187266305388e-16</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5.34293</v>
+      </c>
+      <c r="C198" t="n">
+        <v>7.665792233025297e-16</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5.34694</v>
+      </c>
+      <c r="C199" t="n">
+        <v>6.659000865712095e-16</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5.34826</v>
+      </c>
+      <c r="C200" t="n">
+        <v>6.340160051856831e-16</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5.34858</v>
+      </c>
+      <c r="C201" t="n">
+        <v>6.168107091388691e-16</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5.35205</v>
+      </c>
+      <c r="C202" t="n">
+        <v>7.714586971961488e-16</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5.3536</v>
+      </c>
+      <c r="C203" t="n">
+        <v>6.689705514307349e-16</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5.3579</v>
+      </c>
+      <c r="C204" t="n">
+        <v>6.922488252515981e-16</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5.359830000000001</v>
+      </c>
+      <c r="C205" t="n">
+        <v>6.213882882824327e-16</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5.36189</v>
+      </c>
+      <c r="C206" t="n">
+        <v>5.767212148826241e-16</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5.36386</v>
+      </c>
+      <c r="C207" t="n">
+        <v>5.419996188867821e-16</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5.36605</v>
+      </c>
+      <c r="C208" t="n">
+        <v>5.039868884590762e-16</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5.368040000000001</v>
+      </c>
+      <c r="C209" t="n">
+        <v>4.611150851535661e-16</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5.36965</v>
+      </c>
+      <c r="C210" t="n">
+        <v>4.632216962258784e-16</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5.3748</v>
+      </c>
+      <c r="C211" t="n">
+        <v>2.318145013505308e-16</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5.38009</v>
+      </c>
+      <c r="C212" t="n">
+        <v>9.326454965792469e-17</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5.382919999999999</v>
+      </c>
+      <c r="C213" t="n">
+        <v>5.695108673628515e-17</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5.38334</v>
+      </c>
+      <c r="C214" t="n">
+        <v>8.019579271994235e-17</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5.383859999999999</v>
+      </c>
+      <c r="C215" t="n">
+        <v>4.973740236567127e-17</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5.38596</v>
+      </c>
+      <c r="C216" t="n">
+        <v>3.998557636554365e-17</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5.38986</v>
+      </c>
+      <c r="C217" t="n">
+        <v>3.351477811243246e-17</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5.39308</v>
+      </c>
+      <c r="C218" t="n">
+        <v>3.40062762307738e-17</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5.40341</v>
+      </c>
+      <c r="C219" t="n">
+        <v>4.50638076023232e-17</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5.41408</v>
+      </c>
+      <c r="C220" t="n">
+        <v>7.961257962633323e-17</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5.42436</v>
+      </c>
+      <c r="C221" t="n">
+        <v>8.414071197258863e-17</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5.43541</v>
+      </c>
+      <c r="C222" t="n">
+        <v>6.950590937519806e-17</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5.43926</v>
+      </c>
+      <c r="C223" t="n">
+        <v>6.073680187169528e-17</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints2.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints2.000000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.99602</v>
+        <v>3.745075119653346</v>
       </c>
       <c r="C2" t="n">
-        <v>4.299869109655768e-15</v>
+        <v>1.7551675133787e-13</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.00097</v>
+        <v>3.762300554123211</v>
       </c>
       <c r="C3" t="n">
-        <v>1.166917222798576e-14</v>
+        <v>2.12308651283754e-13</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.00294</v>
+        <v>3.779337451499375</v>
       </c>
       <c r="C4" t="n">
-        <v>1.740517551950868e-14</v>
+        <v>2.911465208497953e-13</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.00697</v>
+        <v>3.788087286620635</v>
       </c>
       <c r="C5" t="n">
-        <v>1.790914414964583e-14</v>
+        <v>4.020974712876032e-13</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.00909</v>
+        <v>3.796605735308717</v>
       </c>
       <c r="C6" t="n">
-        <v>1.845417178786326e-14</v>
+        <v>5.275062886418055e-13</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.01003</v>
+        <v>3.805055625053636</v>
       </c>
       <c r="C7" t="n">
-        <v>1.944247347990236e-14</v>
+        <v>1.06193473692134e-12</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.01507</v>
+        <v>3.813539794270136</v>
       </c>
       <c r="C8" t="n">
-        <v>1.729406164170087e-14</v>
+        <v>1.718177832526328e-12</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.01911</v>
+        <v>3.817867577557342</v>
       </c>
       <c r="C9" t="n">
-        <v>1.871905492019598e-14</v>
+        <v>4.606525558982244e-12</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.01992</v>
+        <v>3.82226391978771</v>
       </c>
       <c r="C10" t="n">
-        <v>1.386567187327758e-14</v>
+        <v>7.279759908970607e-12</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.02504</v>
+        <v>3.830696669796837</v>
       </c>
       <c r="C11" t="n">
-        <v>1.713233021122845e-14</v>
+        <v>7.658557162914383e-12</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.02998</v>
+        <v>3.837569703848993</v>
       </c>
       <c r="C12" t="n">
-        <v>1.308331055301608e-14</v>
+        <v>5.947452464743892e-12</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.03514</v>
+        <v>3.844554146183789</v>
       </c>
       <c r="C13" t="n">
-        <v>1.145747144379806e-14</v>
+        <v>2.969577662558198e-12</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.26996</v>
+        <v>3.846319538970252</v>
       </c>
       <c r="C14" t="n">
-        <v>6.208767815034666e-15</v>
+        <v>2.252479027427021e-12</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.29005</v>
+        <v>3.847930674134597</v>
       </c>
       <c r="C15" t="n">
-        <v>4.427384630344029e-15</v>
+        <v>2.83023293541183e-12</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.291119999999999</v>
+        <v>3.84977319573212</v>
       </c>
       <c r="C16" t="n">
-        <v>4.507289425604199e-15</v>
+        <v>1.237600522919202e-12</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.29319</v>
+        <v>3.852147049139162</v>
       </c>
       <c r="C17" t="n">
-        <v>3.875278279337837e-15</v>
+        <v>8.838158710951744e-13</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.2942</v>
+        <v>3.856414843351097</v>
       </c>
       <c r="C18" t="n">
-        <v>3.953748757667007e-15</v>
+        <v>4.994029934101625e-13</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.29515</v>
+        <v>3.865190388076044</v>
       </c>
       <c r="C19" t="n">
-        <v>5.066107572377036e-15</v>
+        <v>2.499291566475459e-13</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.29615</v>
+        <v>3.866878652051449</v>
       </c>
       <c r="C20" t="n">
-        <v>4.145575421019135e-15</v>
+        <v>1.900244904993891e-13</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.297219999999999</v>
+        <v>3.869363913741131</v>
       </c>
       <c r="C21" t="n">
-        <v>4.80185098907192e-15</v>
+        <v>1.892776241610876e-13</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.298080000000001</v>
+        <v>3.873640277820963</v>
       </c>
       <c r="C22" t="n">
-        <v>9.098829055847608e-15</v>
+        <v>2.212729085227826e-13</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.299090000000001</v>
+        <v>3.878070899522913</v>
       </c>
       <c r="C23" t="n">
-        <v>1.014676786599368e-14</v>
+        <v>2.755722701283236e-13</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.30105</v>
+        <v>3.881644534435317</v>
       </c>
       <c r="C24" t="n">
-        <v>1.335520390791367e-14</v>
+        <v>2.612917156480773e-13</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.3031</v>
+        <v>3.88648650979625</v>
       </c>
       <c r="C25" t="n">
-        <v>1.449218784927906e-14</v>
+        <v>5.435557071638174e-13</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.30523</v>
+        <v>3.890925701366096</v>
       </c>
       <c r="C26" t="n">
-        <v>1.260034396035451e-14</v>
+        <v>8.081453327396479e-13</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.30725</v>
+        <v>3.899118495074151</v>
       </c>
       <c r="C27" t="n">
-        <v>1.519921347163371e-14</v>
+        <v>1.876761532152885e-12</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.3093</v>
+        <v>3.908014017949633</v>
       </c>
       <c r="C28" t="n">
-        <v>1.375151033684508e-14</v>
+        <v>4.516561709490377e-12</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.30996</v>
+        <v>3.916541036505611</v>
       </c>
       <c r="C29" t="n">
-        <v>1.42796092876615e-14</v>
+        <v>4.252670896635971e-12</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.31117</v>
+        <v>3.925025205722112</v>
       </c>
       <c r="C30" t="n">
-        <v>1.393552785091776e-14</v>
+        <v>2.212411012052404e-12</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.31311</v>
+        <v>3.933637922957044</v>
       </c>
       <c r="C31" t="n">
-        <v>1.378746808299852e-14</v>
+        <v>1.103161038875833e-12</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.31513</v>
+        <v>3.942370618342513</v>
       </c>
       <c r="C32" t="n">
-        <v>1.292570895536727e-14</v>
+        <v>5.285402730795578e-13</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.3172</v>
+        <v>3.950700529936895</v>
       </c>
       <c r="C33" t="n">
-        <v>1.186052701986842e-14</v>
+        <v>5.226312573976168e-13</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.31917</v>
+        <v>3.959476074661841</v>
       </c>
       <c r="C34" t="n">
-        <v>1.402634446198244e-14</v>
+        <v>3.506653018999225e-13</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.32116</v>
+        <v>3.967797416388328</v>
       </c>
       <c r="C35" t="n">
-        <v>1.216822246864424e-14</v>
+        <v>2.977489180105104e-13</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.32298</v>
+        <v>3.97227945729765</v>
       </c>
       <c r="C36" t="n">
-        <v>1.169993558180033e-14</v>
+        <v>1.86790790956664e-13</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.32521</v>
+        <v>3.976384424019573</v>
       </c>
       <c r="C37" t="n">
-        <v>7.542012723325709e-15</v>
+        <v>2.076691672800796e-13</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.32711</v>
+        <v>3.984954291915029</v>
       </c>
       <c r="C38" t="n">
-        <v>7.632618360533245e-15</v>
+        <v>4.2509163069212e-13</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.32908</v>
+        <v>4.002231145592266</v>
       </c>
       <c r="C39" t="n">
-        <v>6.229485762343484e-15</v>
+        <v>2.609208207579555e-13</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.33012</v>
+        <v>4.010826723091408</v>
       </c>
       <c r="C40" t="n">
-        <v>7.578912672723709e-15</v>
+        <v>1.113318659528837e-13</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.33119</v>
+        <v>4.019208053893163</v>
       </c>
       <c r="C41" t="n">
-        <v>1.135661584603983e-14</v>
+        <v>9.177688025727739e-14</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.33324</v>
+        <v>4.036424918495132</v>
       </c>
       <c r="C42" t="n">
-        <v>1.149239611063845e-14</v>
+        <v>7.640474249403669e-14</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.33515</v>
+        <v>4.053547514550251</v>
       </c>
       <c r="C43" t="n">
-        <v>1.062779787555323e-14</v>
+        <v>8.913448683270357e-14</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.34004</v>
+        <v>4.070687250341162</v>
       </c>
       <c r="C44" t="n">
-        <v>9.347833140627199e-15</v>
+        <v>1.46524824148246e-13</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.34488</v>
+        <v>4.075126441911007</v>
       </c>
       <c r="C45" t="n">
-        <v>9.608809762917669e-15</v>
+        <v>3.314309738493143e-13</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.34998</v>
+        <v>4.078297293032326</v>
       </c>
       <c r="C46" t="n">
-        <v>9.067106878502036e-15</v>
+        <v>3.661268614442696e-13</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.37005</v>
+        <v>4.087861265603653</v>
       </c>
       <c r="C47" t="n">
-        <v>5.451893650144661e-15</v>
+        <v>4.054405058973911e-13</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.39015</v>
+        <v>4.09212905981559</v>
       </c>
       <c r="C48" t="n">
-        <v>6.485645877716763e-15</v>
+        <v>4.107011230202396e-13</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.41003</v>
+        <v>4.096551111649645</v>
       </c>
       <c r="C49" t="n">
-        <v>8.748491254083186e-15</v>
+        <v>3.574130598479787e-13</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.42024</v>
+        <v>4.105069560337727</v>
       </c>
       <c r="C50" t="n">
-        <v>1.198046321174103e-14</v>
+        <v>2.989789084641561e-13</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.43018</v>
+        <v>4.113468030875272</v>
       </c>
       <c r="C51" t="n">
-        <v>1.558791100725396e-14</v>
+        <v>2.146061115205296e-13</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.44004</v>
+        <v>4.122132167317578</v>
       </c>
       <c r="C52" t="n">
-        <v>3.112468327255358e-14</v>
+        <v>1.868769478310354e-13</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.44994</v>
+        <v>4.12395754917931</v>
       </c>
       <c r="C53" t="n">
-        <v>4.994679756255756e-14</v>
+        <v>1.740204321517112e-13</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.45499</v>
+        <v>4.126622778094797</v>
       </c>
       <c r="C54" t="n">
-        <v>1.33350054223153e-13</v>
+        <v>1.730497556141996e-13</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.46012</v>
+        <v>4.13072774481672</v>
       </c>
       <c r="C55" t="n">
-        <v>2.098399209803066e-13</v>
+        <v>1.644634802136318e-13</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.469959999999999</v>
+        <v>4.139151924957952</v>
       </c>
       <c r="C56" t="n">
-        <v>2.189636684335511e-13</v>
+        <v>1.582985394719274e-13</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.477980000000001</v>
+        <v>4.156411638899399</v>
       </c>
       <c r="C57" t="n">
-        <v>1.689141312474356e-13</v>
+        <v>1.681611800533668e-13</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.48613</v>
+        <v>4.170346244097408</v>
       </c>
       <c r="C58" t="n">
-        <v>8.377081624111158e-14</v>
+        <v>2.086106281345975e-13</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.48819</v>
+        <v>4.190571132330683</v>
       </c>
       <c r="C59" t="n">
-        <v>6.343317813635901e-14</v>
+        <v>3.056833093933349e-13</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.490069999999999</v>
+        <v>4.199158139961929</v>
       </c>
       <c r="C60" t="n">
-        <v>7.957935525995218e-14</v>
+        <v>4.460188859093017e-13</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.49222</v>
+        <v>4.207916544951084</v>
       </c>
       <c r="C61" t="n">
-        <v>3.473633088131082e-14</v>
+        <v>5.61133152394222e-13</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.49499</v>
+        <v>4.216340725092316</v>
       </c>
       <c r="C62" t="n">
-        <v>2.474953558757923e-14</v>
+        <v>7.13214471386417e-13</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.499969999999999</v>
+        <v>4.221645473319603</v>
       </c>
       <c r="C63" t="n">
-        <v>1.392713545691922e-14</v>
+        <v>8.625236599316863e-13</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.51021</v>
+        <v>4.225107699949367</v>
       </c>
       <c r="C64" t="n">
-        <v>6.910945721715022e-15</v>
+        <v>9.149215947823897e-13</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.51218</v>
+        <v>4.230875221043007</v>
       </c>
       <c r="C65" t="n">
-        <v>5.245902604959493e-15</v>
+        <v>1.102025118382226e-12</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.51508</v>
+        <v>4.23929940118424</v>
       </c>
       <c r="C66" t="n">
-        <v>5.212725726158015e-15</v>
+        <v>1.292278707837295e-12</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.52007</v>
+        <v>4.24231599468344</v>
       </c>
       <c r="C67" t="n">
-        <v>6.06869959318911e-15</v>
+        <v>1.284614362405242e-12</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.52524</v>
+        <v>4.24787783894759</v>
       </c>
       <c r="C68" t="n">
-        <v>7.525577651503414e-15</v>
+        <v>1.397913788067916e-12</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.529409999999999</v>
+        <v>4.252257041442167</v>
       </c>
       <c r="C69" t="n">
-        <v>7.110944042448113e-15</v>
+        <v>1.394457100314584e-12</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.53506</v>
+        <v>4.25472516339606</v>
       </c>
       <c r="C70" t="n">
-        <v>1.472345180595171e-14</v>
+        <v>1.365856271230711e-12</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.54024</v>
+        <v>4.25739896217944</v>
       </c>
       <c r="C71" t="n">
-        <v>2.179658103403456e-14</v>
+        <v>1.323262081118584e-12</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.5498</v>
+        <v>4.259258623512755</v>
       </c>
       <c r="C72" t="n">
-        <v>5.021840861069867e-14</v>
+        <v>1.312855641829493e-12</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.56018</v>
+        <v>4.2616239070519</v>
       </c>
       <c r="C73" t="n">
-        <v>1.198177750082778e-13</v>
+        <v>1.230450853736093e-12</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.570130000000001</v>
+        <v>4.263192192876769</v>
       </c>
       <c r="C74" t="n">
-        <v>1.118895383485427e-13</v>
+        <v>1.188198324288721e-12</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.580030000000001</v>
+        <v>4.271830619715387</v>
       </c>
       <c r="C75" t="n">
-        <v>5.773324136077717e-14</v>
+        <v>9.319053693823569e-13</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.59008</v>
+        <v>4.27642406890735</v>
       </c>
       <c r="C76" t="n">
-        <v>2.854811340851473e-14</v>
+        <v>8.427316758816292e-13</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.60027</v>
+        <v>4.28036620813926</v>
       </c>
       <c r="C77" t="n">
-        <v>1.356264832857243e-14</v>
+        <v>6.93298310876038e-13</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.60999</v>
+        <v>4.28891036643103</v>
       </c>
       <c r="C78" t="n">
-        <v>1.330329079189339e-14</v>
+        <v>5.14342910583045e-13</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.62023</v>
+        <v>4.293495245755098</v>
       </c>
       <c r="C79" t="n">
-        <v>8.850471311679351e-15</v>
+        <v>4.5819115073606e-13</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.62994</v>
+        <v>4.297651631684394</v>
       </c>
       <c r="C80" t="n">
-        <v>7.454605874115493e-15</v>
+        <v>3.849673969323461e-13</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.63517</v>
+        <v>4.300136893374075</v>
       </c>
       <c r="C81" t="n">
-        <v>4.656346241010718e-15</v>
+        <v>3.615945643578061e-13</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.639959999999999</v>
+        <v>4.300239731788821</v>
       </c>
       <c r="C82" t="n">
-        <v>5.156270541787413e-15</v>
+        <v>3.623015694172778e-13</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.64996</v>
+        <v>4.30191942589633</v>
       </c>
       <c r="C83" t="n">
-        <v>1.04674914727936e-14</v>
+        <v>3.552555238331617e-13</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.67012</v>
+        <v>4.306187220108267</v>
       </c>
       <c r="C84" t="n">
-        <v>6.318353389328203e-15</v>
+        <v>3.368962048966775e-13</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.68015</v>
+        <v>4.308783890080591</v>
       </c>
       <c r="C85" t="n">
-        <v>2.673623442078841e-15</v>
+        <v>3.345318950830188e-13</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.68993</v>
+        <v>4.310729250092858</v>
       </c>
       <c r="C86" t="n">
-        <v>2.186199090404597e-15</v>
+        <v>3.346750140523078e-13</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.71002</v>
+        <v>4.31302597468884</v>
       </c>
       <c r="C87" t="n">
-        <v>1.789934238935891e-15</v>
+        <v>3.693344266257992e-13</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.73</v>
+        <v>4.315699773472222</v>
       </c>
       <c r="C88" t="n">
-        <v>2.053820612251963e-15</v>
+        <v>3.967926192824787e-13</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.75</v>
+        <v>4.318107906350845</v>
       </c>
       <c r="C89" t="n">
-        <v>3.320631793138536e-15</v>
+        <v>4.117555275161654e-13</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.75518</v>
+        <v>4.320910253152659</v>
       </c>
       <c r="C90" t="n">
-        <v>7.478869135767212e-15</v>
+        <v>4.089217534730155e-13</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.75888</v>
+        <v>4.323318386031281</v>
       </c>
       <c r="C91" t="n">
-        <v>8.236469544359882e-15</v>
+        <v>3.957429514373328e-13</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.77004</v>
+        <v>4.327757577601127</v>
       </c>
       <c r="C92" t="n">
-        <v>9.036806992413511e-15</v>
+        <v>3.669513384551147e-13</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.77502</v>
+        <v>4.331931103266214</v>
       </c>
       <c r="C93" t="n">
-        <v>9.116311629403828e-15</v>
+        <v>3.076928559865557e-13</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.780180000000001</v>
+        <v>4.340535250633251</v>
       </c>
       <c r="C94" t="n">
-        <v>7.899584067337196e-15</v>
+        <v>1.837134608140976e-13</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.79012</v>
+        <v>4.344845894184665</v>
       </c>
       <c r="C95" t="n">
-        <v>6.553787684780581e-15</v>
+        <v>1.513208143928669e-13</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.799919999999999</v>
+        <v>4.348762323812888</v>
       </c>
       <c r="C96" t="n">
-        <v>4.666189374665202e-15</v>
+        <v>1.183276316210056e-13</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.81003</v>
+        <v>4.357083665539375</v>
       </c>
       <c r="C97" t="n">
-        <v>4.029329227485854e-15</v>
+        <v>8.730724744515067e-14</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.81216</v>
+        <v>4.362054188918739</v>
       </c>
       <c r="C98" t="n">
-        <v>3.745499081160181e-15</v>
+        <v>7.99103516374812e-14</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.81527</v>
+        <v>4.365250749643743</v>
       </c>
       <c r="C99" t="n">
-        <v>3.715007702909363e-15</v>
+        <v>7.724303590171774e-14</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.82006</v>
+        <v>4.367855989483961</v>
       </c>
       <c r="C100" t="n">
-        <v>3.516673700781436e-15</v>
+        <v>7.77224141960852e-14</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.82989</v>
+        <v>4.369681371345694</v>
       </c>
       <c r="C101" t="n">
-        <v>3.357354136494342e-15</v>
+        <v>7.32434373521074e-14</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.85003</v>
+        <v>4.370624056814194</v>
       </c>
       <c r="C102" t="n">
-        <v>3.507424364092736e-15</v>
+        <v>7.246290696629819e-14</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.86629</v>
+        <v>4.371001131001594</v>
       </c>
       <c r="C103" t="n">
-        <v>4.292788812686719e-15</v>
+        <v>7.266654568962647e-14</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.88989</v>
+        <v>4.371241087302666</v>
       </c>
       <c r="C104" t="n">
-        <v>6.168368229509702e-15</v>
+        <v>7.230897810827734e-14</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.89991</v>
+        <v>4.37310074863598</v>
       </c>
       <c r="C105" t="n">
-        <v>8.925673433383414e-15</v>
+        <v>7.05064378549744e-14</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.910130000000001</v>
+        <v>4.37479758247928</v>
       </c>
       <c r="C106" t="n">
-        <v>1.113450154199648e-14</v>
+        <v>6.858419402935027e-14</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.91996</v>
+        <v>4.376545835529954</v>
       </c>
       <c r="C107" t="n">
-        <v>1.403726976943051e-14</v>
+        <v>6.801972233091508e-14</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.92615</v>
+        <v>4.378156970694299</v>
       </c>
       <c r="C108" t="n">
-        <v>1.688895894910399e-14</v>
+        <v>6.050903409257864e-14</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.930190000000001</v>
+        <v>4.379236774049127</v>
       </c>
       <c r="C109" t="n">
-        <v>1.785500111005667e-14</v>
+        <v>6.118731761094589e-14</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.93692</v>
+        <v>4.379845234669704</v>
       </c>
       <c r="C110" t="n">
-        <v>2.138662551392562e-14</v>
+        <v>6.135247500801264e-14</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.94675</v>
+        <v>4.382493323849399</v>
       </c>
       <c r="C111" t="n">
-        <v>2.487508699087675e-14</v>
+        <v>6.027863363175042e-14</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.95027</v>
+        <v>4.386743978325545</v>
       </c>
       <c r="C112" t="n">
-        <v>2.465543792493853e-14</v>
+        <v>5.197303487238153e-14</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.95676</v>
+        <v>4.391003202669586</v>
       </c>
       <c r="C113" t="n">
-        <v>2.668588381918653e-14</v>
+        <v>4.411355443293413e-14</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.961869999999999</v>
+        <v>4.395073889919927</v>
       </c>
       <c r="C114" t="n">
-        <v>2.650726464106301e-14</v>
+        <v>4.10095341323532e-14</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.96475</v>
+        <v>4.396290811161082</v>
       </c>
       <c r="C115" t="n">
-        <v>2.590161933064127e-14</v>
+        <v>3.972916858246308e-14</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.96787</v>
+        <v>4.399607350036622</v>
       </c>
       <c r="C116" t="n">
-        <v>2.502899754281247e-14</v>
+        <v>4.834384735159314e-14</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.97004</v>
+        <v>4.403952273059619</v>
       </c>
       <c r="C117" t="n">
-        <v>2.478749152290094e-14</v>
+        <v>8.18732272304516e-14</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.9728</v>
+        <v>4.406326126466659</v>
       </c>
       <c r="C118" t="n">
-        <v>2.31784974058962e-14</v>
+        <v>9.93270321773598e-14</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.97463</v>
+        <v>4.408974215646356</v>
       </c>
       <c r="C119" t="n">
-        <v>2.234860815031935e-14</v>
+        <v>1.041032169691615e-13</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.98471</v>
+        <v>4.411759422712378</v>
       </c>
       <c r="C120" t="n">
-        <v>1.738204688584772e-14</v>
+        <v>1.048030403827292e-13</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.990069999999999</v>
+        <v>4.41349053602726</v>
       </c>
       <c r="C121" t="n">
-        <v>1.564901058691209e-14</v>
+        <v>1.057450589408209e-13</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.994669999999999</v>
+        <v>4.414321813213119</v>
       </c>
       <c r="C122" t="n">
-        <v>1.282507891795976e-14</v>
+        <v>1.060037551515031e-13</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.00464</v>
+        <v>4.419515153157765</v>
       </c>
       <c r="C123" t="n">
-        <v>9.436259153713157e-15</v>
+        <v>9.962519834669801e-14</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.00999</v>
+        <v>4.421511932377406</v>
       </c>
       <c r="C124" t="n">
-        <v>8.368851575587374e-15</v>
+        <v>9.041789549557689e-14</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.01484</v>
+        <v>4.430664551289752</v>
       </c>
       <c r="C125" t="n">
-        <v>7.003181247254655e-15</v>
+        <v>5.399570380834709e-14</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.01774</v>
+        <v>4.447624319854858</v>
       </c>
       <c r="C126" t="n">
-        <v>6.562181850602049e-15</v>
+        <v>3.203914781219427e-14</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.01786</v>
+        <v>4.464926883135782</v>
       </c>
       <c r="C127" t="n">
-        <v>6.574357856058399e-15</v>
+        <v>2.652794466424134e-14</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.019819999999999</v>
+        <v>4.482066618926692</v>
       </c>
       <c r="C128" t="n">
-        <v>6.436024013978534e-15</v>
+        <v>2.790388649594887e-14</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.0248</v>
+        <v>4.490182283823687</v>
       </c>
       <c r="C129" t="n">
-        <v>6.078246877661932e-15</v>
+        <v>3.747189346300297e-14</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.027830000000001</v>
+        <v>4.493233156794469</v>
       </c>
       <c r="C130" t="n">
-        <v>6.020434736375772e-15</v>
+        <v>4.115591973985586e-14</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.0301</v>
+        <v>4.499292053396556</v>
       </c>
       <c r="C131" t="n">
-        <v>6.011676359167152e-15</v>
+        <v>6.048451601646192e-14</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.032780000000001</v>
+        <v>4.507699093801998</v>
       </c>
       <c r="C132" t="n">
-        <v>6.619517348614668e-15</v>
+        <v>7.692875380367746e-14</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.0359</v>
+        <v>4.512069726428679</v>
       </c>
       <c r="C133" t="n">
-        <v>7.09325856849615e-15</v>
+        <v>7.823207623963227e-14</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.03871</v>
+        <v>4.516303241169035</v>
       </c>
       <c r="C134" t="n">
-        <v>7.343600262370712e-15</v>
+        <v>7.359126499770352e-14</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.041980000000001</v>
+        <v>4.520571035380971</v>
       </c>
       <c r="C135" t="n">
-        <v>7.273298699712147e-15</v>
+        <v>6.493662515586376e-14</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.04479</v>
+        <v>4.520622454588343</v>
       </c>
       <c r="C136" t="n">
-        <v>7.022500554666408e-15</v>
+        <v>6.428808424190522e-14</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.04997</v>
+        <v>4.524727421310266</v>
       </c>
       <c r="C137" t="n">
-        <v>6.48366247207617e-15</v>
+        <v>5.633235607048724e-14</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.05484</v>
+        <v>4.529132333408531</v>
       </c>
       <c r="C138" t="n">
-        <v>5.414699695470833e-15</v>
+        <v>4.68457461617415e-14</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.06488</v>
+        <v>4.533597234582063</v>
       </c>
       <c r="C139" t="n">
-        <v>3.206121031550295e-15</v>
+        <v>4.187353258638355e-14</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.06991</v>
+        <v>4.535979657856999</v>
       </c>
       <c r="C140" t="n">
-        <v>2.629813720578471e-15</v>
+        <v>4.06600856759471e-14</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.07448</v>
+        <v>4.540033205371549</v>
       </c>
       <c r="C141" t="n">
-        <v>2.048639950493092e-15</v>
+        <v>3.941243473003344e-14</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.08419</v>
+        <v>4.541790028290118</v>
       </c>
       <c r="C142" t="n">
-        <v>1.499445390135361e-15</v>
+        <v>3.863582104873171e-14</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.08999</v>
+        <v>4.54406961315031</v>
       </c>
       <c r="C143" t="n">
-        <v>1.365819481400076e-15</v>
+        <v>3.581449720448696e-14</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.093719999999999</v>
+        <v>4.54908298586915</v>
       </c>
       <c r="C144" t="n">
-        <v>1.316150181768354e-15</v>
+        <v>3.917813115781226e-14</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.09676</v>
+        <v>4.553067974440538</v>
       </c>
       <c r="C145" t="n">
-        <v>1.32098199156501e-15</v>
+        <v>4.425288516162331e-14</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.09889</v>
+        <v>4.557044393144028</v>
       </c>
       <c r="C146" t="n">
-        <v>1.242658409276641e-15</v>
+        <v>4.91803633999279e-14</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.09999</v>
+        <v>4.561577853260723</v>
       </c>
       <c r="C147" t="n">
-        <v>1.228294197801513e-15</v>
+        <v>5.442332576927679e-14</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.10043</v>
+        <v>4.56575137892581</v>
       </c>
       <c r="C148" t="n">
-        <v>1.231296385920266e-15</v>
+        <v>6.173197352479935e-14</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.100709999999999</v>
+        <v>4.570207710231447</v>
       </c>
       <c r="C149" t="n">
-        <v>1.224952960652664e-15</v>
+        <v>6.811767819143844e-14</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.10288</v>
+        <v>4.570233419835134</v>
       </c>
       <c r="C150" t="n">
-        <v>1.1922682456181e-15</v>
+        <v>6.494435265803057e-14</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.10486</v>
+        <v>4.574141279595461</v>
       </c>
       <c r="C151" t="n">
-        <v>1.157859137997405e-15</v>
+        <v>6.421537790428487e-14</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.1069</v>
+        <v>4.578657599976365</v>
       </c>
       <c r="C152" t="n">
-        <v>1.146387404440129e-15</v>
+        <v>5.636481902402144e-14</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.10878</v>
+        <v>4.578820427466379</v>
       </c>
       <c r="C153" t="n">
-        <v>1.018214534384155e-15</v>
+        <v>5.532438312049888e-14</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.110040000000001</v>
+        <v>4.582256944492457</v>
       </c>
       <c r="C154" t="n">
-        <v>1.028552421569586e-15</v>
+        <v>4.821849556782524e-14</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.11075</v>
+        <v>4.583388167054657</v>
       </c>
       <c r="C155" t="n">
-        <v>1.030721290909791e-15</v>
+        <v>4.59600490121351e-14</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.11384</v>
+        <v>4.583662402827311</v>
       </c>
       <c r="C156" t="n">
-        <v>1.010087607024883e-15</v>
+        <v>4.472470480100535e-14</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.1188</v>
+        <v>4.586636146987034</v>
       </c>
       <c r="C157" t="n">
-        <v>8.673339144710741e-16</v>
+        <v>5.609946385804378e-14</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.123769999999999</v>
+        <v>4.58796447651083</v>
       </c>
       <c r="C158" t="n">
-        <v>7.331440385627084e-16</v>
+        <v>4.870926670499466e-14</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.12852</v>
+        <v>4.591649519705875</v>
       </c>
       <c r="C159" t="n">
-        <v>6.788758735065506e-16</v>
+        <v>5.058437314478749e-14</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.12994</v>
+        <v>4.593303504209699</v>
       </c>
       <c r="C160" t="n">
-        <v>6.569061115786685e-16</v>
+        <v>4.547918841274775e-14</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.13381</v>
+        <v>4.595068896996162</v>
       </c>
       <c r="C161" t="n">
-        <v>7.96783693178096e-16</v>
+        <v>4.228223290833842e-14</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.13888</v>
+        <v>4.596757160971567</v>
       </c>
       <c r="C162" t="n">
-        <v>1.343736471517106e-15</v>
+        <v>3.98016319838912e-14</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.14165</v>
+        <v>4.598633962040672</v>
       </c>
       <c r="C163" t="n">
-        <v>1.626452759752501e-15</v>
+        <v>3.707749014204069e-14</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.144740000000001</v>
+        <v>4.600339365751868</v>
       </c>
       <c r="C164" t="n">
-        <v>1.700296371892107e-15</v>
+        <v>3.397954343654838e-14</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.14799</v>
+        <v>4.601719114483036</v>
       </c>
       <c r="C165" t="n">
-        <v>1.707116600251527e-15</v>
+        <v>3.418041121721247e-14</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.15001</v>
+        <v>4.606132596449195</v>
       </c>
       <c r="C166" t="n">
-        <v>1.719576325622063e-15</v>
+        <v>1.717848467564457e-14</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.150980000000001</v>
+        <v>4.610666056565891</v>
       </c>
       <c r="C167" t="n">
-        <v>1.722396258789113e-15</v>
+        <v>6.941721096658632e-15</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.15704</v>
+        <v>4.613091329180303</v>
       </c>
       <c r="C168" t="n">
-        <v>1.610635371665059e-15</v>
+        <v>4.248859805328668e-15</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.15937</v>
+        <v>4.613451263631914</v>
       </c>
       <c r="C169" t="n">
-        <v>1.458957987548687e-15</v>
+        <v>5.985126337451564e-15</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.17005</v>
+        <v>4.613896896762476</v>
       </c>
       <c r="C170" t="n">
-        <v>8.635727680887641e-16</v>
+        <v>3.713575219057467e-15</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.18984</v>
+        <v>4.615696569020522</v>
       </c>
       <c r="C171" t="n">
-        <v>5.040680114264334e-16</v>
+        <v>2.990675167725753e-15</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.210030000000001</v>
+        <v>4.619038817499749</v>
       </c>
       <c r="C172" t="n">
-        <v>4.104271568044079e-16</v>
+        <v>2.514824263740584e-15</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.23003</v>
+        <v>4.621798314962087</v>
       </c>
       <c r="C173" t="n">
-        <v>4.24609743854153e-16</v>
+        <v>2.558531305176189e-15</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.2395</v>
+        <v>4.630650988498092</v>
       </c>
       <c r="C174" t="n">
-        <v>5.657418107061305e-16</v>
+        <v>3.41965326911162e-15</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.24306</v>
+        <v>4.639795037542543</v>
       </c>
       <c r="C175" t="n">
-        <v>6.195296024435586e-16</v>
+        <v>6.095101487863047e-15</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.25013</v>
+        <v>4.64860486173907</v>
       </c>
       <c r="C176" t="n">
-        <v>9.05161776896551e-16</v>
+        <v>6.496956248881353e-15</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>5.25994</v>
+        <v>4.658074565763548</v>
       </c>
       <c r="C177" t="n">
-        <v>1.141919656868087e-15</v>
+        <v>5.416359501725607e-15</v>
       </c>
     </row>
     <row r="178">
@@ -2319,505 +2319,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>5.26504</v>
+        <v>4.661373964903298</v>
       </c>
       <c r="C178" t="n">
-        <v>1.15636214284796e-15</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>5.26998</v>
-      </c>
-      <c r="C179" t="n">
-        <v>1.083315837049286e-15</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>5.27496</v>
-      </c>
-      <c r="C180" t="n">
-        <v>9.519714817578297e-16</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5.27502</v>
-      </c>
-      <c r="C181" t="n">
-        <v>9.424169462857798e-16</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>5.279809999999999</v>
-      </c>
-      <c r="C182" t="n">
-        <v>8.225160621813576e-16</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>5.28495</v>
-      </c>
-      <c r="C183" t="n">
-        <v>6.810897985796202e-16</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>5.29016</v>
-      </c>
-      <c r="C184" t="n">
-        <v>6.061726437149768e-16</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>5.29294</v>
-      </c>
-      <c r="C185" t="n">
-        <v>5.872502589348052e-16</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>5.29767</v>
-      </c>
-      <c r="C186" t="n">
-        <v>5.670008147151687e-16</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>5.29972</v>
-      </c>
-      <c r="C187" t="n">
-        <v>5.548835161865589e-16</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>5.30238</v>
-      </c>
-      <c r="C188" t="n">
-        <v>5.132299298194303e-16</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>5.30823</v>
-      </c>
-      <c r="C189" t="n">
-        <v>5.587129252807063e-16</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>5.312880000000001</v>
-      </c>
-      <c r="C190" t="n">
-        <v>6.286528852820344e-16</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>5.31752</v>
-      </c>
-      <c r="C191" t="n">
-        <v>6.95967531578138e-16</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>5.32281</v>
-      </c>
-      <c r="C192" t="n">
-        <v>7.667892435453539e-16</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>5.32768</v>
-      </c>
-      <c r="C193" t="n">
-        <v>8.662557609628626e-16</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>5.33288</v>
-      </c>
-      <c r="C194" t="n">
-        <v>9.517479107873612e-16</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>5.33291</v>
-      </c>
-      <c r="C195" t="n">
-        <v>9.073872594432011e-16</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>5.33747</v>
-      </c>
-      <c r="C196" t="n">
-        <v>8.938138497145021e-16</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>5.34274</v>
-      </c>
-      <c r="C197" t="n">
-        <v>7.811187266305388e-16</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>5.34293</v>
-      </c>
-      <c r="C198" t="n">
-        <v>7.665792233025297e-16</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>5.34694</v>
-      </c>
-      <c r="C199" t="n">
-        <v>6.659000865712095e-16</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>5.34826</v>
-      </c>
-      <c r="C200" t="n">
-        <v>6.340160051856831e-16</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>5.34858</v>
-      </c>
-      <c r="C201" t="n">
-        <v>6.168107091388691e-16</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>5.35205</v>
-      </c>
-      <c r="C202" t="n">
-        <v>7.714586971961488e-16</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>5.3536</v>
-      </c>
-      <c r="C203" t="n">
-        <v>6.689705514307349e-16</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>5.3579</v>
-      </c>
-      <c r="C204" t="n">
-        <v>6.922488252515981e-16</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>5.359830000000001</v>
-      </c>
-      <c r="C205" t="n">
-        <v>6.213882882824327e-16</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>5.36189</v>
-      </c>
-      <c r="C206" t="n">
-        <v>5.767212148826241e-16</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>5.36386</v>
-      </c>
-      <c r="C207" t="n">
-        <v>5.419996188867821e-16</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>5.36605</v>
-      </c>
-      <c r="C208" t="n">
-        <v>5.039868884590762e-16</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>5.368040000000001</v>
-      </c>
-      <c r="C209" t="n">
-        <v>4.611150851535661e-16</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>5.36965</v>
-      </c>
-      <c r="C210" t="n">
-        <v>4.632216962258784e-16</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>5.3748</v>
-      </c>
-      <c r="C211" t="n">
-        <v>2.318145013505308e-16</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>5.38009</v>
-      </c>
-      <c r="C212" t="n">
-        <v>9.326454965792469e-17</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>5.382919999999999</v>
-      </c>
-      <c r="C213" t="n">
-        <v>5.695108673628515e-17</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>5.38334</v>
-      </c>
-      <c r="C214" t="n">
-        <v>8.019579271994235e-17</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>5.383859999999999</v>
-      </c>
-      <c r="C215" t="n">
-        <v>4.973740236567127e-17</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>5.38596</v>
-      </c>
-      <c r="C216" t="n">
-        <v>3.998557636554365e-17</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>5.38986</v>
-      </c>
-      <c r="C217" t="n">
-        <v>3.351477811243246e-17</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>5.39308</v>
-      </c>
-      <c r="C218" t="n">
-        <v>3.40062762307738e-17</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>5.40341</v>
-      </c>
-      <c r="C219" t="n">
-        <v>4.50638076023232e-17</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>5.41408</v>
-      </c>
-      <c r="C220" t="n">
-        <v>7.961257962633323e-17</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>5.42436</v>
-      </c>
-      <c r="C221" t="n">
-        <v>8.414071197258863e-17</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>5.43541</v>
-      </c>
-      <c r="C222" t="n">
-        <v>6.950590937519806e-17</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>5.43926</v>
-      </c>
-      <c r="C223" t="n">
-        <v>6.073680187169528e-17</v>
+        <v>4.748156924511959e-15</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints2.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints2.000000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.745075119653346</v>
+        <v>3.996021</v>
       </c>
       <c r="C2" t="n">
-        <v>1.7551675133787e-13</v>
+        <v>6730.181573985277</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.762300554123211</v>
+        <v>4.000967</v>
       </c>
       <c r="C3" t="n">
-        <v>2.12308651283754e-13</v>
+        <v>11374.60490112475</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.779337451499375</v>
+        <v>4.00294</v>
       </c>
       <c r="C4" t="n">
-        <v>2.911465208497953e-13</v>
+        <v>15816.47717264103</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.788087286620635</v>
+        <v>4.006972</v>
       </c>
       <c r="C5" t="n">
-        <v>4.020974712876032e-13</v>
+        <v>15547.10333607289</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.796605735308717</v>
+        <v>4.009086</v>
       </c>
       <c r="C6" t="n">
-        <v>5.275062886418055e-13</v>
+        <v>18959.56259720116</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.805055625053636</v>
+        <v>4.010032</v>
       </c>
       <c r="C7" t="n">
-        <v>1.06193473692134e-12</v>
+        <v>18027.48893397627</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.813539794270136</v>
+        <v>4.01507</v>
       </c>
       <c r="C8" t="n">
-        <v>1.718177832526328e-12</v>
+        <v>17065.68293584163</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.817867577557342</v>
+        <v>4.019108</v>
       </c>
       <c r="C9" t="n">
-        <v>4.606525558982244e-12</v>
+        <v>18301.68922688821</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.82226391978771</v>
+        <v>4.019916</v>
       </c>
       <c r="C10" t="n">
-        <v>7.279759908970607e-12</v>
+        <v>12938.31035136784</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.830696669796837</v>
+        <v>4.025044</v>
       </c>
       <c r="C11" t="n">
-        <v>7.658557162914383e-12</v>
+        <v>16035.22900525878</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.837569703848993</v>
+        <v>4.029979</v>
       </c>
       <c r="C12" t="n">
-        <v>5.947452464743892e-12</v>
+        <v>17503.21437336626</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.844554146183789</v>
+        <v>4.035141</v>
       </c>
       <c r="C13" t="n">
-        <v>2.969577662558198e-12</v>
+        <v>11006.05096236647</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.846319538970252</v>
+        <v>4.269958</v>
       </c>
       <c r="C14" t="n">
-        <v>2.252479027427021e-12</v>
+        <v>5709.952644873802</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.847930674134597</v>
+        <v>4.290051</v>
       </c>
       <c r="C15" t="n">
-        <v>2.83023293541183e-12</v>
+        <v>4031.656761258962</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.84977319573212</v>
+        <v>4.291116000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>1.237600522919202e-12</v>
+        <v>4327.751559376387</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.852147049139162</v>
+        <v>4.293189</v>
       </c>
       <c r="C17" t="n">
-        <v>8.838158710951744e-13</v>
+        <v>3632.598004504525</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.856414843351097</v>
+        <v>4.294196</v>
       </c>
       <c r="C18" t="n">
-        <v>4.994029934101625e-13</v>
+        <v>3743.803072485377</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.865190388076044</v>
+        <v>4.295147</v>
       </c>
       <c r="C19" t="n">
-        <v>2.499291566475459e-13</v>
+        <v>4722.867699464538</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.866878652051449</v>
+        <v>4.296155000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>1.900244904993891e-13</v>
+        <v>3885.217597341497</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.869363913741131</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>1.892776241610876e-13</v>
+        <v>4611.549157862539</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.873640277820963</v>
+        <v>4.298083999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>2.212729085227826e-13</v>
+        <v>8270.094738464948</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.878070899522913</v>
+        <v>4.299093</v>
       </c>
       <c r="C23" t="n">
-        <v>2.755722701283236e-13</v>
+        <v>9605.133717596525</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.881644534435317</v>
+        <v>4.301051999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>2.612917156480773e-13</v>
+        <v>13299.78482359059</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.88648650979625</v>
+        <v>4.303098</v>
       </c>
       <c r="C25" t="n">
-        <v>5.435557071638174e-13</v>
+        <v>13980.82298473692</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.890925701366096</v>
+        <v>4.305231</v>
       </c>
       <c r="C26" t="n">
-        <v>8.081453327396479e-13</v>
+        <v>13059.59427610794</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.899118495074151</v>
+        <v>4.30725</v>
       </c>
       <c r="C27" t="n">
-        <v>1.876761532152885e-12</v>
+        <v>14251.35960367684</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.908014017949633</v>
+        <v>4.309297</v>
       </c>
       <c r="C28" t="n">
-        <v>4.516561709490377e-12</v>
+        <v>13816.33925015201</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.916541036505611</v>
+        <v>4.309961</v>
       </c>
       <c r="C29" t="n">
-        <v>4.252670896635971e-12</v>
+        <v>13648.39244207523</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.925025205722112</v>
+        <v>4.311172</v>
       </c>
       <c r="C30" t="n">
-        <v>2.212411012052404e-12</v>
+        <v>13335.80976452583</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.933637922957044</v>
+        <v>4.313105999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>1.103161038875833e-12</v>
+        <v>13421.33578104408</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.942370618342513</v>
+        <v>4.315126</v>
       </c>
       <c r="C32" t="n">
-        <v>5.285402730795578e-13</v>
+        <v>12467.71864786714</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.950700529936895</v>
+        <v>4.317204</v>
       </c>
       <c r="C33" t="n">
-        <v>5.226312573976168e-13</v>
+        <v>11654.53717094147</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.959476074661841</v>
+        <v>4.319168</v>
       </c>
       <c r="C34" t="n">
-        <v>3.506653018999225e-13</v>
+        <v>13065.89864831971</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.967797416388328</v>
+        <v>4.32116</v>
       </c>
       <c r="C35" t="n">
-        <v>2.977489180105104e-13</v>
+        <v>11522.38851782954</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.97227945729765</v>
+        <v>4.32298</v>
       </c>
       <c r="C36" t="n">
-        <v>1.86790790956664e-13</v>
+        <v>10935.56944207624</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.976384424019573</v>
+        <v>4.325205</v>
       </c>
       <c r="C37" t="n">
-        <v>2.076691672800796e-13</v>
+        <v>7298.957128061702</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.984954291915029</v>
+        <v>4.327112000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>4.2509163069212e-13</v>
+        <v>7189.430546097584</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.002231145592266</v>
+        <v>4.329078</v>
       </c>
       <c r="C39" t="n">
-        <v>2.609208207579555e-13</v>
+        <v>6730.240825178712</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.010826723091408</v>
+        <v>4.330119</v>
       </c>
       <c r="C40" t="n">
-        <v>1.113318659528837e-13</v>
+        <v>7165.134182699089</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.019208053893163</v>
+        <v>4.331189</v>
       </c>
       <c r="C41" t="n">
-        <v>9.177688025727739e-14</v>
+        <v>10640.46625093865</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.036424918495132</v>
+        <v>4.333242</v>
       </c>
       <c r="C42" t="n">
-        <v>7.640474249403669e-14</v>
+        <v>10853.31655439372</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.053547514550251</v>
+        <v>4.335151000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>8.913448683270357e-14</v>
+        <v>9886.710710426974</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.070687250341162</v>
+        <v>4.340042</v>
       </c>
       <c r="C44" t="n">
-        <v>1.46524824148246e-13</v>
+        <v>8735.588566725159</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.075126441911007</v>
+        <v>4.344876999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>3.314309738493143e-13</v>
+        <v>8928.766561485707</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.078297293032326</v>
+        <v>4.349976</v>
       </c>
       <c r="C46" t="n">
-        <v>3.661268614442696e-13</v>
+        <v>8479.473247062173</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.087861265603653</v>
+        <v>4.370053</v>
       </c>
       <c r="C47" t="n">
-        <v>4.054405058973911e-13</v>
+        <v>5055.379040284863</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.09212905981559</v>
+        <v>4.390148</v>
       </c>
       <c r="C48" t="n">
-        <v>4.107011230202396e-13</v>
+        <v>6062.566293690847</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.096551111649645</v>
+        <v>4.410025</v>
       </c>
       <c r="C49" t="n">
-        <v>3.574130598479787e-13</v>
+        <v>8138.081096499197</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.105069560337727</v>
+        <v>4.420244</v>
       </c>
       <c r="C50" t="n">
-        <v>2.989789084641561e-13</v>
+        <v>11217.17020647253</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.113468030875272</v>
+        <v>4.430182</v>
       </c>
       <c r="C51" t="n">
-        <v>2.146061115205296e-13</v>
+        <v>14569.68453703166</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.122132167317578</v>
+        <v>4.440043</v>
       </c>
       <c r="C52" t="n">
-        <v>1.868769478310354e-13</v>
+        <v>28973.17538689557</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.12395754917931</v>
+        <v>4.449945</v>
       </c>
       <c r="C53" t="n">
-        <v>1.740204321517112e-13</v>
+        <v>46495.9699042393</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.126622778094797</v>
+        <v>4.454988</v>
       </c>
       <c r="C54" t="n">
-        <v>1.730497556141996e-13</v>
+        <v>124521.1569653976</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.13072774481672</v>
+        <v>4.460121</v>
       </c>
       <c r="C55" t="n">
-        <v>1.644634802136318e-13</v>
+        <v>195764.5865469809</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.139151924957952</v>
+        <v>4.469957</v>
       </c>
       <c r="C56" t="n">
-        <v>1.582985394719274e-13</v>
+        <v>203977.3795761388</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.156411638899399</v>
+        <v>4.477981</v>
       </c>
       <c r="C57" t="n">
-        <v>1.681611800533668e-13</v>
+        <v>157435.6929825592</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.170346244097408</v>
+        <v>4.486129</v>
       </c>
       <c r="C58" t="n">
-        <v>2.086106281345975e-13</v>
+        <v>78250.3094915868</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.190571132330683</v>
+        <v>4.488189</v>
       </c>
       <c r="C59" t="n">
-        <v>3.056833093933349e-13</v>
+        <v>59304.83584421689</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.199158139961929</v>
+        <v>4.490073000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>4.460188859093017e-13</v>
+        <v>74253.21747768023</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.207916544951084</v>
+        <v>4.492223</v>
       </c>
       <c r="C61" t="n">
-        <v>5.61133152394222e-13</v>
+        <v>32371.98111847684</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.216340725092316</v>
+        <v>4.494992</v>
       </c>
       <c r="C62" t="n">
-        <v>7.13214471386417e-13</v>
+        <v>23006.38529678912</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.221645473319603</v>
+        <v>4.499972000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>8.625236599316863e-13</v>
+        <v>12919.78171189537</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.225107699949367</v>
+        <v>4.510205</v>
       </c>
       <c r="C64" t="n">
-        <v>9.149215947823897e-13</v>
+        <v>6447.839299637377</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.230875221043007</v>
+        <v>4.512183</v>
       </c>
       <c r="C65" t="n">
-        <v>1.102025118382226e-12</v>
+        <v>4902.399971585494</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.23929940118424</v>
+        <v>4.515076000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>1.292278707837295e-12</v>
+        <v>4908.293600765366</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.24231599468344</v>
+        <v>4.520067</v>
       </c>
       <c r="C67" t="n">
-        <v>1.284614362405242e-12</v>
+        <v>5651.498007833161</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.24787783894759</v>
+        <v>4.525238</v>
       </c>
       <c r="C68" t="n">
-        <v>1.397913788067916e-12</v>
+        <v>7180.345049315044</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.252257041442167</v>
+        <v>4.529406</v>
       </c>
       <c r="C69" t="n">
-        <v>1.394457100314584e-12</v>
+        <v>6805.946355360139</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.25472516339606</v>
+        <v>4.535056</v>
       </c>
       <c r="C70" t="n">
-        <v>1.365856271230711e-12</v>
+        <v>13440.84642309792</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.25739896217944</v>
+        <v>4.540236</v>
       </c>
       <c r="C71" t="n">
-        <v>1.323262081118584e-12</v>
+        <v>20603.80466561902</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.259258623512755</v>
+        <v>4.549804</v>
       </c>
       <c r="C72" t="n">
-        <v>1.312855641829493e-12</v>
+        <v>46870.54061181063</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.2616239070519</v>
+        <v>4.560183</v>
       </c>
       <c r="C73" t="n">
-        <v>1.230450853736093e-12</v>
+        <v>111793.7150539276</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.263192192876769</v>
+        <v>4.570129</v>
       </c>
       <c r="C74" t="n">
-        <v>1.188198324288721e-12</v>
+        <v>104452.6185002816</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.271830619715387</v>
+        <v>4.580025</v>
       </c>
       <c r="C75" t="n">
-        <v>9.319053693823569e-13</v>
+        <v>53836.86440419932</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.27642406890735</v>
+        <v>4.590082</v>
       </c>
       <c r="C76" t="n">
-        <v>8.427316758816292e-13</v>
+        <v>26764.90526671673</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.28036620813926</v>
+        <v>4.600268</v>
       </c>
       <c r="C77" t="n">
-        <v>6.93298310876038e-13</v>
+        <v>12649.6215544831</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.28891036643103</v>
+        <v>4.609989</v>
       </c>
       <c r="C78" t="n">
-        <v>5.14342910583045e-13</v>
+        <v>12454.90705229436</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.293495245755098</v>
+        <v>4.620227</v>
       </c>
       <c r="C79" t="n">
-        <v>4.5819115073606e-13</v>
+        <v>8422.67923866047</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.297651631684394</v>
+        <v>4.629939</v>
       </c>
       <c r="C80" t="n">
-        <v>3.849673969323461e-13</v>
+        <v>6950.480914685898</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.300136893374075</v>
+        <v>4.635173</v>
       </c>
       <c r="C81" t="n">
-        <v>3.615945643578061e-13</v>
+        <v>4333.360629887562</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.300239731788821</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>3.623015694172778e-13</v>
+        <v>4803.804736564868</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.30191942589633</v>
+        <v>4.649962</v>
       </c>
       <c r="C83" t="n">
-        <v>3.552555238331617e-13</v>
+        <v>9745.11479456314</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.306187220108267</v>
+        <v>4.670119000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>3.368962048966775e-13</v>
+        <v>5880.059820196606</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.308783890080591</v>
+        <v>4.680153</v>
       </c>
       <c r="C85" t="n">
-        <v>3.345318950830188e-13</v>
+        <v>2484.568677786401</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.310729250092858</v>
+        <v>4.689928</v>
       </c>
       <c r="C86" t="n">
-        <v>3.346750140523078e-13</v>
+        <v>2036.040185032433</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.31302597468884</v>
+        <v>4.71002</v>
       </c>
       <c r="C87" t="n">
-        <v>3.693344266257992e-13</v>
+        <v>1670.163482087503</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.315699773472222</v>
+        <v>4.730004</v>
       </c>
       <c r="C88" t="n">
-        <v>3.967926192824787e-13</v>
+        <v>1900.327363039991</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.318107906350845</v>
+        <v>4.749999</v>
       </c>
       <c r="C89" t="n">
-        <v>4.117555275161654e-13</v>
+        <v>3096.323914397428</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.320910253152659</v>
+        <v>4.755179</v>
       </c>
       <c r="C90" t="n">
-        <v>4.089217534730155e-13</v>
+        <v>6962.255449442152</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.323318386031281</v>
+        <v>4.758876</v>
       </c>
       <c r="C91" t="n">
-        <v>3.957429514373328e-13</v>
+        <v>7659.745109153063</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.327757577601127</v>
+        <v>4.770038</v>
       </c>
       <c r="C92" t="n">
-        <v>3.669513384551147e-13</v>
+        <v>8440.555165633848</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.331931103266214</v>
+        <v>4.775016</v>
       </c>
       <c r="C93" t="n">
-        <v>3.076928559865557e-13</v>
+        <v>8480.281635011674</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.340535250633251</v>
+        <v>4.780179</v>
       </c>
       <c r="C94" t="n">
-        <v>1.837134608140976e-13</v>
+        <v>7332.914794696386</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.344845894184665</v>
+        <v>4.790118</v>
       </c>
       <c r="C95" t="n">
-        <v>1.513208143928669e-13</v>
+        <v>6115.210542746622</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.348762323812888</v>
+        <v>4.799915</v>
       </c>
       <c r="C96" t="n">
-        <v>1.183276316210056e-13</v>
+        <v>4345.773985490663</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.357083665539375</v>
+        <v>4.810027</v>
       </c>
       <c r="C97" t="n">
-        <v>8.730724744515067e-14</v>
+        <v>3762.494105102623</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.362054188918739</v>
+        <v>4.81216</v>
       </c>
       <c r="C98" t="n">
-        <v>7.99103516374812e-14</v>
+        <v>3499.69877743323</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.365250749643743</v>
+        <v>4.81527</v>
       </c>
       <c r="C99" t="n">
-        <v>7.724303590171774e-14</v>
+        <v>3437.291858389703</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.367855989483961</v>
+        <v>4.820058</v>
       </c>
       <c r="C100" t="n">
-        <v>7.77224141960852e-14</v>
+        <v>3285.519191336507</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.369681371345694</v>
+        <v>4.829886</v>
       </c>
       <c r="C101" t="n">
-        <v>7.32434373521074e-14</v>
+        <v>3125.650641252071</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.370624056814194</v>
+        <v>4.85003</v>
       </c>
       <c r="C102" t="n">
-        <v>7.246290696629819e-14</v>
+        <v>3268.321082638473</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.371001131001594</v>
+        <v>4.866293</v>
       </c>
       <c r="C103" t="n">
-        <v>7.266654568962647e-14</v>
+        <v>4006.518682213016</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.371241087302666</v>
+        <v>4.889892</v>
       </c>
       <c r="C104" t="n">
-        <v>7.230897810827734e-14</v>
+        <v>5748.734990443575</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.37310074863598</v>
+        <v>4.899914</v>
       </c>
       <c r="C105" t="n">
-        <v>7.05064378549744e-14</v>
+        <v>8312.689316117923</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.37479758247928</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>6.858419402935027e-14</v>
+        <v>10379.73299445034</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.376545835529954</v>
+        <v>4.919957</v>
       </c>
       <c r="C107" t="n">
-        <v>6.801972233091508e-14</v>
+        <v>13069.13656944714</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.378156970694299</v>
+        <v>4.926154</v>
       </c>
       <c r="C108" t="n">
-        <v>6.050903409257864e-14</v>
+        <v>15741.05560119825</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.379236774049127</v>
+        <v>4.930194999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>6.118731761094589e-14</v>
+        <v>16635.78705237867</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.379845234669704</v>
+        <v>4.936923</v>
       </c>
       <c r="C110" t="n">
-        <v>6.135247500801264e-14</v>
+        <v>19951.80115552316</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.382493323849399</v>
+        <v>4.946745</v>
       </c>
       <c r="C111" t="n">
-        <v>6.027863363175042e-14</v>
+        <v>23181.96615774388</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.386743978325545</v>
+        <v>4.950269</v>
       </c>
       <c r="C112" t="n">
-        <v>5.197303487238153e-14</v>
+        <v>22975.03948112805</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.391003202669586</v>
+        <v>4.956763</v>
       </c>
       <c r="C113" t="n">
-        <v>4.411355443293413e-14</v>
+        <v>24850.6771744937</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.395073889919927</v>
+        <v>4.961869</v>
       </c>
       <c r="C114" t="n">
-        <v>4.10095341323532e-14</v>
+        <v>24691.52602907441</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.396290811161082</v>
+        <v>4.964748</v>
       </c>
       <c r="C115" t="n">
-        <v>3.972916858246308e-14</v>
+        <v>24133.61073636261</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.399607350036622</v>
+        <v>4.967875</v>
       </c>
       <c r="C116" t="n">
-        <v>4.834384735159314e-14</v>
+        <v>23327.70780839564</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.403952273059619</v>
+        <v>4.970043</v>
       </c>
       <c r="C117" t="n">
-        <v>8.18732272304516e-14</v>
+        <v>23063.88764310752</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.406326126466659</v>
+        <v>4.9728</v>
       </c>
       <c r="C118" t="n">
-        <v>9.93270321773598e-14</v>
+        <v>21590.10567505364</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.408974215646356</v>
+        <v>4.974629</v>
       </c>
       <c r="C119" t="n">
-        <v>1.041032169691615e-13</v>
+        <v>20823.94877327215</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.411759422712378</v>
+        <v>4.984706</v>
       </c>
       <c r="C120" t="n">
-        <v>1.048030403827292e-13</v>
+        <v>16192.67276366154</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.41349053602726</v>
+        <v>4.990074</v>
       </c>
       <c r="C121" t="n">
-        <v>1.057450589408209e-13</v>
+        <v>14572.51869378228</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.414321813213119</v>
+        <v>4.994669</v>
       </c>
       <c r="C122" t="n">
-        <v>1.060037551515031e-13</v>
+        <v>11962.15800328989</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.419515153157765</v>
+        <v>5.004642</v>
       </c>
       <c r="C123" t="n">
-        <v>9.962519834669801e-14</v>
+        <v>8790.367064901138</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.421511932377406</v>
+        <v>5.00999</v>
       </c>
       <c r="C124" t="n">
-        <v>9.041789549557689e-14</v>
+        <v>7794.643432589113</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.430664551289752</v>
+        <v>5.014843</v>
       </c>
       <c r="C125" t="n">
-        <v>5.399570380834709e-14</v>
+        <v>6533.287667101212</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.447624319854858</v>
+        <v>5.017737</v>
       </c>
       <c r="C126" t="n">
-        <v>3.203914781219427e-14</v>
+        <v>6115.091054804152</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.464926883135782</v>
+        <v>5.017861</v>
       </c>
       <c r="C127" t="n">
-        <v>2.652794466424134e-14</v>
+        <v>6130.661012541779</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.482066618926692</v>
+        <v>5.019822</v>
       </c>
       <c r="C128" t="n">
-        <v>2.790388649594887e-14</v>
+        <v>6010.644426346197</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.490182283823687</v>
+        <v>5.024805000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>3.747189346300297e-14</v>
+        <v>5665.285441873401</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.493233156794469</v>
+        <v>5.027826</v>
       </c>
       <c r="C130" t="n">
-        <v>4.115591973985586e-14</v>
+        <v>5619.483473574832</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.499292053396556</v>
+        <v>5.030101</v>
       </c>
       <c r="C131" t="n">
-        <v>6.048451601646192e-14</v>
+        <v>5596.897973207072</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.507699093801998</v>
+        <v>5.032781</v>
       </c>
       <c r="C132" t="n">
-        <v>7.692875380367746e-14</v>
+        <v>6168.884464749404</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.512069726428679</v>
+        <v>5.035899</v>
       </c>
       <c r="C133" t="n">
-        <v>7.823207623963227e-14</v>
+        <v>6604.512949709257</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.516303241169035</v>
+        <v>5.038705999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>7.359126499770352e-14</v>
+        <v>6837.338585075106</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.520571035380971</v>
+        <v>5.041981</v>
       </c>
       <c r="C135" t="n">
-        <v>6.493662515586376e-14</v>
+        <v>6784.905090140996</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.520622454588343</v>
+        <v>5.044789</v>
       </c>
       <c r="C136" t="n">
-        <v>6.428808424190522e-14</v>
+        <v>6536.794913447399</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.524727421310266</v>
+        <v>5.049971</v>
       </c>
       <c r="C137" t="n">
-        <v>5.633235607048724e-14</v>
+        <v>6037.855988589251</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.529132333408531</v>
+        <v>5.054843</v>
       </c>
       <c r="C138" t="n">
-        <v>4.68457461617415e-14</v>
+        <v>5048.15429537399</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.533597234582063</v>
+        <v>5.064876</v>
       </c>
       <c r="C139" t="n">
-        <v>4.187353258638355e-14</v>
+        <v>2985.492520074148</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.535979657856999</v>
+        <v>5.069912</v>
       </c>
       <c r="C140" t="n">
-        <v>4.06600856759471e-14</v>
+        <v>2442.971939992836</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.540033205371549</v>
+        <v>5.074481</v>
       </c>
       <c r="C141" t="n">
-        <v>3.941243473003344e-14</v>
+        <v>1911.537592336026</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.541790028290118</v>
+        <v>5.084189</v>
       </c>
       <c r="C142" t="n">
-        <v>3.863582104873171e-14</v>
+        <v>1399.446195947534</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.54406961315031</v>
+        <v>5.089986</v>
       </c>
       <c r="C143" t="n">
-        <v>3.581449720448696e-14</v>
+        <v>1270.238748303036</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.54908298586915</v>
+        <v>5.093717</v>
       </c>
       <c r="C144" t="n">
-        <v>3.917813115781226e-14</v>
+        <v>1219.703952517601</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.553067974440538</v>
+        <v>5.09676</v>
       </c>
       <c r="C145" t="n">
-        <v>4.425288516162331e-14</v>
+        <v>1229.587458073756</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.557044393144028</v>
+        <v>5.098893</v>
       </c>
       <c r="C146" t="n">
-        <v>4.91803633999279e-14</v>
+        <v>1157.961515254058</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.561577853260723</v>
+        <v>5.099991</v>
       </c>
       <c r="C147" t="n">
-        <v>5.442332576927679e-14</v>
+        <v>1150.341515280541</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.56575137892581</v>
+        <v>5.100430999999999</v>
       </c>
       <c r="C148" t="n">
-        <v>6.173197352479935e-14</v>
+        <v>1149.227578091948</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.570207710231447</v>
+        <v>5.100713</v>
       </c>
       <c r="C149" t="n">
-        <v>6.811767819143844e-14</v>
+        <v>1142.433768416234</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.570233419835134</v>
+        <v>5.102879</v>
       </c>
       <c r="C150" t="n">
-        <v>6.494435265803057e-14</v>
+        <v>1110.049853787736</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.574141279595461</v>
+        <v>5.104856</v>
       </c>
       <c r="C151" t="n">
-        <v>6.421537790428487e-14</v>
+        <v>1073.877163552458</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.578657599976365</v>
+        <v>5.106897</v>
       </c>
       <c r="C152" t="n">
-        <v>5.636481902402144e-14</v>
+        <v>1063.586298958881</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.578820427466379</v>
+        <v>5.108781</v>
       </c>
       <c r="C153" t="n">
-        <v>5.532438312049888e-14</v>
+        <v>953.024816580672</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.582256944492457</v>
+        <v>5.110037</v>
       </c>
       <c r="C154" t="n">
-        <v>4.821849556782524e-14</v>
+        <v>957.4479743489503</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.583388167054657</v>
+        <v>5.11075</v>
       </c>
       <c r="C155" t="n">
-        <v>4.59600490121351e-14</v>
+        <v>962.8818451959958</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.583662402827311</v>
+        <v>5.113839</v>
       </c>
       <c r="C156" t="n">
-        <v>4.472470480100535e-14</v>
+        <v>941.0122292703633</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.586636146987034</v>
+        <v>5.118804</v>
       </c>
       <c r="C157" t="n">
-        <v>5.609946385804378e-14</v>
+        <v>808.8266323675474</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.58796447651083</v>
+        <v>5.123773</v>
       </c>
       <c r="C158" t="n">
-        <v>4.870926670499466e-14</v>
+        <v>687.5124685746911</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.591649519705875</v>
+        <v>5.128523</v>
       </c>
       <c r="C159" t="n">
-        <v>5.058437314478749e-14</v>
+        <v>631.7193004705111</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.593303504209699</v>
+        <v>5.129939</v>
       </c>
       <c r="C160" t="n">
-        <v>4.547918841274775e-14</v>
+        <v>611.3064245890698</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.595068896996162</v>
+        <v>5.133811</v>
       </c>
       <c r="C161" t="n">
-        <v>4.228223290833842e-14</v>
+        <v>740.6386529836404</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.596757160971567</v>
+        <v>5.138881</v>
       </c>
       <c r="C162" t="n">
-        <v>3.98016319838912e-14</v>
+        <v>1259.751753688457</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.598633962040672</v>
+        <v>5.141653</v>
       </c>
       <c r="C163" t="n">
-        <v>3.707749014204069e-14</v>
+        <v>1511.904917431876</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.600339365751868</v>
+        <v>5.144741000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>3.397954343654838e-14</v>
+        <v>1583.390886754437</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.601719114483036</v>
+        <v>5.147988</v>
       </c>
       <c r="C165" t="n">
-        <v>3.418041121721247e-14</v>
+        <v>1586.546822078768</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.606132596449195</v>
+        <v>5.150005999999999</v>
       </c>
       <c r="C166" t="n">
-        <v>1.717848467564457e-14</v>
+        <v>1599.608312534462</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.610666056565891</v>
+        <v>5.150983</v>
       </c>
       <c r="C167" t="n">
-        <v>6.941721096658632e-15</v>
+        <v>1604.620894603253</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.613091329180303</v>
+        <v>5.15704</v>
       </c>
       <c r="C168" t="n">
-        <v>4.248859805328668e-15</v>
+        <v>1498.593134789393</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.613451263631914</v>
+        <v>5.159375</v>
       </c>
       <c r="C169" t="n">
-        <v>5.985126337451564e-15</v>
+        <v>1361.367308926819</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.613896896762476</v>
+        <v>5.170048</v>
       </c>
       <c r="C170" t="n">
-        <v>3.713575219057467e-15</v>
+        <v>804.4468741975456</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.615696569020522</v>
+        <v>5.189844</v>
       </c>
       <c r="C171" t="n">
-        <v>2.990675167725753e-15</v>
+        <v>469.2118995189506</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.619038817499749</v>
+        <v>5.210028</v>
       </c>
       <c r="C172" t="n">
-        <v>2.514824263740584e-15</v>
+        <v>382.7299858054649</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.621798314962087</v>
+        <v>5.230028</v>
       </c>
       <c r="C173" t="n">
-        <v>2.558531305176189e-15</v>
+        <v>396.0406914925304</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.630650988498092</v>
+        <v>5.239501000000001</v>
       </c>
       <c r="C174" t="n">
-        <v>3.41965326911162e-15</v>
+        <v>528.4112741310283</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.639795037542543</v>
+        <v>5.243064</v>
       </c>
       <c r="C175" t="n">
-        <v>6.095101487863047e-15</v>
+        <v>575.6905153165681</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.64860486173907</v>
+        <v>5.250129</v>
       </c>
       <c r="C176" t="n">
-        <v>6.496956248881353e-15</v>
+        <v>840.6055156556937</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.658074565763548</v>
+        <v>5.25994</v>
       </c>
       <c r="C177" t="n">
-        <v>5.416359501725607e-15</v>
+        <v>1069.764899059955</v>
       </c>
     </row>
     <row r="178">
@@ -2319,10 +2319,505 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.661373964903298</v>
+        <v>5.26504</v>
       </c>
       <c r="C178" t="n">
-        <v>4.748156924511959e-15</v>
+        <v>1076.232333110979</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.269983</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1008.819267277243</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.27496</v>
+      </c>
+      <c r="C180" t="n">
+        <v>884.8129463224187</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.275024</v>
+      </c>
+      <c r="C181" t="n">
+        <v>878.0509635646105</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.279812000000001</v>
+      </c>
+      <c r="C182" t="n">
+        <v>766.3702411699377</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.284953</v>
+      </c>
+      <c r="C183" t="n">
+        <v>633.9357632080958</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.290161</v>
+      </c>
+      <c r="C184" t="n">
+        <v>566.342309151572</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.292942</v>
+      </c>
+      <c r="C185" t="n">
+        <v>551.3634804762302</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5.297674</v>
+      </c>
+      <c r="C186" t="n">
+        <v>529.8880940688828</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.299721</v>
+      </c>
+      <c r="C187" t="n">
+        <v>518.1121920458032</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5.302376000000001</v>
+      </c>
+      <c r="C188" t="n">
+        <v>480.2593370512784</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5.308233</v>
+      </c>
+      <c r="C189" t="n">
+        <v>521.8263416519945</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5.312876</v>
+      </c>
+      <c r="C190" t="n">
+        <v>587.3581336162983</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5.317521</v>
+      </c>
+      <c r="C191" t="n">
+        <v>648.8757102589132</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5.322808999999999</v>
+      </c>
+      <c r="C192" t="n">
+        <v>713.015236779974</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5.327683</v>
+      </c>
+      <c r="C193" t="n">
+        <v>806.2837600516795</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5.33288</v>
+      </c>
+      <c r="C194" t="n">
+        <v>887.3086552969081</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5.332912</v>
+      </c>
+      <c r="C195" t="n">
+        <v>845.6700160680758</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5.337469</v>
+      </c>
+      <c r="C196" t="n">
+        <v>830.7201986727425</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5.342735</v>
+      </c>
+      <c r="C197" t="n">
+        <v>728.0689857828282</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5.342928</v>
+      </c>
+      <c r="C198" t="n">
+        <v>714.338176273429</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5.346943</v>
+      </c>
+      <c r="C199" t="n">
+        <v>621.5019063107699</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5.348261</v>
+      </c>
+      <c r="C200" t="n">
+        <v>591.5458266333911</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5.348582</v>
+      </c>
+      <c r="C201" t="n">
+        <v>575.6136093375293</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5.352053</v>
+      </c>
+      <c r="C202" t="n">
+        <v>718.9347927184544</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5.353596</v>
+      </c>
+      <c r="C203" t="n">
+        <v>622.9069882160763</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5.357905000000001</v>
+      </c>
+      <c r="C204" t="n">
+        <v>643.2358807126691</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5.359834999999999</v>
+      </c>
+      <c r="C205" t="n">
+        <v>579.1969810502097</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5.361894</v>
+      </c>
+      <c r="C206" t="n">
+        <v>537.6354797804433</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5.363857</v>
+      </c>
+      <c r="C207" t="n">
+        <v>504.9253048118043</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5.366045</v>
+      </c>
+      <c r="C208" t="n">
+        <v>468.4878215511991</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5.368041000000001</v>
+      </c>
+      <c r="C209" t="n">
+        <v>429.4387361074133</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5.369651</v>
+      </c>
+      <c r="C210" t="n">
+        <v>432.4921369856423</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5.374804</v>
+      </c>
+      <c r="C211" t="n">
+        <v>216.6314123881405</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5.380088</v>
+      </c>
+      <c r="C212" t="n">
+        <v>86.79479688383553</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5.382924</v>
+      </c>
+      <c r="C213" t="n">
+        <v>52.99692658229355</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5.383343</v>
+      </c>
+      <c r="C214" t="n">
+        <v>74.71932632220592</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5.383858999999999</v>
+      </c>
+      <c r="C215" t="n">
+        <v>46.32333524037939</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5.385955</v>
+      </c>
+      <c r="C216" t="n">
+        <v>37.17389715289545</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5.389858</v>
+      </c>
+      <c r="C217" t="n">
+        <v>30.94410588859898</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5.393084</v>
+      </c>
+      <c r="C218" t="n">
+        <v>31.02146408041215</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5.403415</v>
+      </c>
+      <c r="C219" t="n">
+        <v>42.07653179633819</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5.414078</v>
+      </c>
+      <c r="C220" t="n">
+        <v>74.03660649646855</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5.424364</v>
+      </c>
+      <c r="C221" t="n">
+        <v>78.27708099761767</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5.435405</v>
+      </c>
+      <c r="C222" t="n">
+        <v>64.69232568398202</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5.439261</v>
+      </c>
+      <c r="C223" t="n">
+        <v>56.46462461814735</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints2.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints2.000000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.996021</v>
+        <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>6730.181573985277</v>
+        <v>1.908864000236831e-13</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.000967</v>
+        <v>3.772113052863507</v>
       </c>
       <c r="C3" t="n">
-        <v>11374.60490112475</v>
+        <v>2.235079554431933e-13</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.00294</v>
+        <v>3.789167089975462</v>
       </c>
       <c r="C4" t="n">
-        <v>15816.47717264103</v>
+        <v>3.043474516647244e-13</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.006972</v>
+        <v>3.797908355228826</v>
       </c>
       <c r="C5" t="n">
-        <v>15547.10333607289</v>
+        <v>4.263853161840113e-13</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.009086</v>
+        <v>3.806478223124282</v>
       </c>
       <c r="C6" t="n">
-        <v>18959.56259720116</v>
+        <v>5.583451218980934e-13</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.010032</v>
+        <v>3.814876693661827</v>
       </c>
       <c r="C7" t="n">
-        <v>18027.48893397627</v>
+        <v>1.093492357686154e-12</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.01507</v>
+        <v>3.823360862878328</v>
       </c>
       <c r="C8" t="n">
-        <v>17065.68293584163</v>
+        <v>1.771911744651617e-12</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.019108</v>
+        <v>3.82773149550501</v>
       </c>
       <c r="C9" t="n">
-        <v>18301.68922688821</v>
+        <v>4.669285534680923e-12</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.019916</v>
+        <v>3.832102128131692</v>
       </c>
       <c r="C10" t="n">
-        <v>12938.31035136784</v>
+        <v>7.353381052049341e-12</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.025044</v>
+        <v>3.840586297348192</v>
       </c>
       <c r="C11" t="n">
-        <v>16035.22900525878</v>
+        <v>7.776989686286586e-12</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.029979</v>
+        <v>3.847442191664556</v>
       </c>
       <c r="C12" t="n">
-        <v>17503.21437336626</v>
+        <v>6.018600128492905e-12</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.035141</v>
+        <v>3.854383784659876</v>
       </c>
       <c r="C13" t="n">
-        <v>11006.05096236647</v>
+        <v>3.000542294719203e-12</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.269958</v>
+        <v>3.856183456917921</v>
       </c>
       <c r="C14" t="n">
-        <v>5709.952644873802</v>
+        <v>2.295535148853694e-12</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.290051</v>
+        <v>3.857811731818057</v>
       </c>
       <c r="C15" t="n">
-        <v>4031.656761258962</v>
+        <v>2.879113822755012e-12</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.291116000000001</v>
+        <v>3.859611404076103</v>
       </c>
       <c r="C16" t="n">
-        <v>4327.751559376387</v>
+        <v>1.276082839981331e-12</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.293189</v>
+        <v>3.86201096708683</v>
       </c>
       <c r="C17" t="n">
-        <v>3632.598004504525</v>
+        <v>8.944986007406843e-13</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.294196</v>
+        <v>3.866295901034558</v>
       </c>
       <c r="C18" t="n">
-        <v>3743.803072485377</v>
+        <v>5.119574103848762e-13</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.295147</v>
+        <v>3.875037166287922</v>
       </c>
       <c r="C19" t="n">
-        <v>4722.867699464538</v>
+        <v>2.66531406469766e-13</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.296155000000001</v>
+        <v>3.876751139867013</v>
       </c>
       <c r="C20" t="n">
-        <v>3885.217597341497</v>
+        <v>2.021440903106295e-13</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.297219999999999</v>
+        <v>3.879236401556695</v>
       </c>
       <c r="C21" t="n">
-        <v>4611.549157862539</v>
+        <v>1.990738815530962e-13</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.298083999999999</v>
+        <v>3.883521335504422</v>
       </c>
       <c r="C22" t="n">
-        <v>8270.094738464948</v>
+        <v>2.396879150319705e-13</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.299093</v>
+        <v>3.887891968131104</v>
       </c>
       <c r="C23" t="n">
-        <v>9605.133717596525</v>
+        <v>2.944778197517472e-13</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.301051999999999</v>
+        <v>3.891491312647195</v>
       </c>
       <c r="C24" t="n">
-        <v>13299.78482359059</v>
+        <v>2.787884290186708e-13</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.303098</v>
+        <v>3.896376137347605</v>
       </c>
       <c r="C25" t="n">
-        <v>13980.82298473692</v>
+        <v>5.613379820613685e-13</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.305231</v>
+        <v>3.900746769974288</v>
       </c>
       <c r="C26" t="n">
-        <v>13059.59427610794</v>
+        <v>8.55741497082966e-13</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.30725</v>
+        <v>3.908973843153924</v>
       </c>
       <c r="C27" t="n">
-        <v>14251.35960367684</v>
+        <v>1.907286328492611e-12</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.309297</v>
+        <v>3.917886505765197</v>
       </c>
       <c r="C28" t="n">
-        <v>13816.33925015201</v>
+        <v>4.626676248393938e-12</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.309961</v>
+        <v>3.926370674981698</v>
       </c>
       <c r="C29" t="n">
-        <v>13648.39244207523</v>
+        <v>4.377744835009447e-12</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.311172</v>
+        <v>3.934854844198199</v>
       </c>
       <c r="C30" t="n">
-        <v>13335.80976452583</v>
+        <v>2.234827676105486e-12</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.313105999999999</v>
+        <v>3.943510410772608</v>
       </c>
       <c r="C31" t="n">
-        <v>13421.33578104408</v>
+        <v>1.134022283015306e-12</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.315126</v>
+        <v>3.952251676025972</v>
       </c>
       <c r="C32" t="n">
-        <v>12467.71864786714</v>
+        <v>5.467052730448143e-13</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.317204</v>
+        <v>3.960564447884564</v>
       </c>
       <c r="C33" t="n">
-        <v>11654.53717094147</v>
+        <v>5.343725269432848e-13</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.319168</v>
+        <v>3.969305713137928</v>
       </c>
       <c r="C34" t="n">
-        <v>13065.89864831971</v>
+        <v>3.51216841266768e-13</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.32116</v>
+        <v>3.977618484996519</v>
       </c>
       <c r="C35" t="n">
-        <v>11522.38851782954</v>
+        <v>3.137345475192941e-13</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.32298</v>
+        <v>3.982160514981111</v>
       </c>
       <c r="C36" t="n">
-        <v>10935.56944207624</v>
+        <v>1.845640834625003e-13</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.325205</v>
+        <v>3.986274051570929</v>
       </c>
       <c r="C37" t="n">
-        <v>7298.957128061702</v>
+        <v>2.177990736666162e-13</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.327112000000001</v>
+        <v>3.994843919466384</v>
       </c>
       <c r="C38" t="n">
-        <v>7189.430546097584</v>
+        <v>4.436451791398216e-13</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.329078</v>
+        <v>4.012069353936249</v>
       </c>
       <c r="C39" t="n">
-        <v>6730.240825178712</v>
+        <v>2.712055119901117e-13</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.330119</v>
+        <v>4.020724920510658</v>
       </c>
       <c r="C40" t="n">
-        <v>7165.134182699089</v>
+        <v>1.164509693672276e-13</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.331189</v>
+        <v>4.02903769236925</v>
       </c>
       <c r="C41" t="n">
-        <v>10640.46625093865</v>
+        <v>9.996412115922672e-14</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.333242</v>
+        <v>4.046263126839114</v>
       </c>
       <c r="C42" t="n">
-        <v>10853.31655439372</v>
+        <v>8.189540523666402e-14</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.335151000000001</v>
+        <v>4.063402862630025</v>
       </c>
       <c r="C43" t="n">
-        <v>9886.710710426974</v>
+        <v>9.146885453275866e-14</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.340042</v>
+        <v>4.080542598420934</v>
       </c>
       <c r="C44" t="n">
-        <v>8735.588566725159</v>
+        <v>1.54974640793438e-13</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.344876999999999</v>
+        <v>4.084998929726572</v>
       </c>
       <c r="C45" t="n">
-        <v>8928.766561485707</v>
+        <v>3.422040040157333e-13</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.349976</v>
+        <v>4.08816978084789</v>
       </c>
       <c r="C46" t="n">
-        <v>8479.473247062173</v>
+        <v>3.785461482779918e-13</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.370053</v>
+        <v>4.097682334211846</v>
       </c>
       <c r="C47" t="n">
-        <v>5055.379040284863</v>
+        <v>4.207027320728309e-13</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.390148</v>
+        <v>4.101967268159573</v>
       </c>
       <c r="C48" t="n">
-        <v>6062.566293690847</v>
+        <v>4.21591836982485e-13</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.410025</v>
+        <v>4.106423599465209</v>
       </c>
       <c r="C49" t="n">
-        <v>8138.081096499197</v>
+        <v>3.63563133944576e-13</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.420244</v>
+        <v>4.114907768681709</v>
       </c>
       <c r="C50" t="n">
-        <v>11217.17020647253</v>
+        <v>3.10375183610726e-13</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.430182</v>
+        <v>4.123306239219255</v>
       </c>
       <c r="C51" t="n">
-        <v>14569.68453703166</v>
+        <v>2.241869200710612e-13</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.440043</v>
+        <v>4.131961805793665</v>
       </c>
       <c r="C52" t="n">
-        <v>28973.17538689557</v>
+        <v>1.98101299598395e-13</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.449945</v>
+        <v>4.133847176730665</v>
       </c>
       <c r="C53" t="n">
-        <v>46495.9699042393</v>
+        <v>1.82591220344967e-13</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.454988</v>
+        <v>4.136503835778257</v>
       </c>
       <c r="C54" t="n">
-        <v>124521.1569653976</v>
+        <v>1.797083630639377e-13</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.460121</v>
+        <v>4.140617372368075</v>
       </c>
       <c r="C55" t="n">
-        <v>195764.5865469809</v>
+        <v>1.719265630611982e-13</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.469957</v>
+        <v>4.149015842905621</v>
       </c>
       <c r="C56" t="n">
-        <v>203977.3795761388</v>
+        <v>1.644906847039378e-13</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.477981</v>
+        <v>4.166241277375486</v>
       </c>
       <c r="C57" t="n">
-        <v>157435.6929825592</v>
+        <v>1.747452570119354e-13</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.486129</v>
+        <v>4.180210162045077</v>
       </c>
       <c r="C58" t="n">
-        <v>78250.3094915868</v>
+        <v>2.173685479394201e-13</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.488189</v>
+        <v>4.200435050278351</v>
       </c>
       <c r="C59" t="n">
-        <v>59304.83584421689</v>
+        <v>3.159853097655155e-13</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.490073000000001</v>
+        <v>4.209004918173807</v>
       </c>
       <c r="C60" t="n">
-        <v>74253.21747768023</v>
+        <v>4.534795911332961e-13</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.492223</v>
+        <v>4.21774618342717</v>
       </c>
       <c r="C61" t="n">
-        <v>32371.98111847684</v>
+        <v>5.729410250607284e-13</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.494992</v>
+        <v>4.226230352643671</v>
       </c>
       <c r="C62" t="n">
-        <v>23006.38529678912</v>
+        <v>7.250136225846095e-13</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.499972000000001</v>
+        <v>4.231543670738853</v>
       </c>
       <c r="C63" t="n">
-        <v>12919.78171189537</v>
+        <v>8.75882857013642e-13</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.510205</v>
+        <v>4.234971617897036</v>
       </c>
       <c r="C64" t="n">
-        <v>6447.839299637377</v>
+        <v>9.276479444411397e-13</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.512183</v>
+        <v>4.24071342938699</v>
       </c>
       <c r="C65" t="n">
-        <v>4902.399971585494</v>
+        <v>1.119805156044981e-12</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.515076000000001</v>
+        <v>4.249111899924536</v>
       </c>
       <c r="C66" t="n">
-        <v>4908.293600765366</v>
+        <v>1.308345003282985e-12</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.520067</v>
+        <v>4.2521970523669</v>
       </c>
       <c r="C67" t="n">
-        <v>5651.498007833161</v>
+        <v>1.302483054974407e-12</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.525238</v>
+        <v>4.257767466498946</v>
       </c>
       <c r="C68" t="n">
-        <v>7180.345049315044</v>
+        <v>1.413052678750504e-12</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.529406</v>
+        <v>4.262138099125628</v>
       </c>
       <c r="C69" t="n">
-        <v>6805.946355360139</v>
+        <v>1.411075761182943e-12</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.535056</v>
+        <v>4.264537662136355</v>
       </c>
       <c r="C70" t="n">
-        <v>13440.84642309792</v>
+        <v>1.384001658241775e-12</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.540236</v>
+        <v>4.267280019862901</v>
       </c>
       <c r="C71" t="n">
-        <v>20603.80466561902</v>
+        <v>1.34023428789023e-12</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.549804</v>
+        <v>4.269079692120946</v>
       </c>
       <c r="C72" t="n">
-        <v>46870.54061181063</v>
+        <v>1.325995298618534e-12</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.560183</v>
+        <v>4.271479255131674</v>
       </c>
       <c r="C73" t="n">
-        <v>111793.7150539276</v>
+        <v>1.243154204504919e-12</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.570129</v>
+        <v>4.273021831352856</v>
       </c>
       <c r="C74" t="n">
-        <v>104452.6185002816</v>
+        <v>1.203400807677799e-12</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.580025</v>
+        <v>4.281677397927266</v>
       </c>
       <c r="C75" t="n">
-        <v>53836.86440419932</v>
+        <v>9.444267497686816e-13</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.590082</v>
+        <v>4.286305126590811</v>
       </c>
       <c r="C76" t="n">
-        <v>26764.90526671673</v>
+        <v>8.547527849416958e-13</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.600268</v>
+        <v>4.29024726582272</v>
       </c>
       <c r="C77" t="n">
-        <v>12649.6215544831</v>
+        <v>7.036957111468138e-13</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.609989</v>
+        <v>4.298731435039221</v>
       </c>
       <c r="C78" t="n">
-        <v>12454.90705229436</v>
+        <v>5.215328748429179e-13</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.620227</v>
+        <v>4.303359163702766</v>
       </c>
       <c r="C79" t="n">
-        <v>8422.67923866047</v>
+        <v>4.654708071944446e-13</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.629939</v>
+        <v>4.307472700292585</v>
       </c>
       <c r="C80" t="n">
-        <v>6950.480914685898</v>
+        <v>3.924154556805463e-13</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.635173</v>
+        <v>4.309957961982268</v>
       </c>
       <c r="C81" t="n">
-        <v>4333.360629887562</v>
+        <v>3.680863835597706e-13</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.639959999999999</v>
+        <v>4.310129359340176</v>
       </c>
       <c r="C82" t="n">
-        <v>4803.804736564868</v>
+        <v>3.695691568484647e-13</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.649962</v>
+        <v>4.311757634240313</v>
       </c>
       <c r="C83" t="n">
-        <v>9745.11479456314</v>
+        <v>3.629773612986736e-13</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.670119000000001</v>
+        <v>4.31604256818804</v>
       </c>
       <c r="C84" t="n">
-        <v>5880.059820196606</v>
+        <v>3.429941756628748e-13</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.680153</v>
+        <v>4.318613528556677</v>
       </c>
       <c r="C85" t="n">
-        <v>2484.568677786401</v>
+        <v>3.415221191362752e-13</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.689928</v>
+        <v>4.320584598172632</v>
       </c>
       <c r="C86" t="n">
-        <v>2036.040185032433</v>
+        <v>3.419679266472711e-13</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.71002</v>
+        <v>4.322898462504404</v>
       </c>
       <c r="C87" t="n">
-        <v>1670.163482087503</v>
+        <v>3.745366032821196e-13</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.730004</v>
+        <v>4.325555121551995</v>
       </c>
       <c r="C88" t="n">
-        <v>1900.327363039991</v>
+        <v>4.035751837058235e-13</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.749999</v>
+        <v>4.327954684562723</v>
       </c>
       <c r="C89" t="n">
-        <v>3096.323914397428</v>
+        <v>4.184169082659436e-13</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.755179</v>
+        <v>4.330782740968223</v>
       </c>
       <c r="C90" t="n">
-        <v>6962.255449442152</v>
+        <v>4.171290137632188e-13</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.758876</v>
+        <v>4.33318230397895</v>
       </c>
       <c r="C91" t="n">
-        <v>7659.745109153063</v>
+        <v>4.013975443066158e-13</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.770038</v>
+        <v>4.337638635284587</v>
       </c>
       <c r="C92" t="n">
-        <v>8440.555165633848</v>
+        <v>3.722529603783144e-13</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.775016</v>
+        <v>4.341752171874406</v>
       </c>
       <c r="C93" t="n">
-        <v>8480.281635011674</v>
+        <v>3.135248502396819e-13</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.780179</v>
+        <v>4.350407738448815</v>
       </c>
       <c r="C94" t="n">
-        <v>7332.914794696386</v>
+        <v>1.87610046500729e-13</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.790118</v>
+        <v>4.354692672396543</v>
       </c>
       <c r="C95" t="n">
-        <v>6115.210542746622</v>
+        <v>1.543570578358733e-13</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.799915</v>
+        <v>4.358634811628452</v>
       </c>
       <c r="C96" t="n">
-        <v>4345.773985490663</v>
+        <v>1.222085054181087e-13</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.810027</v>
+        <v>4.366947583487043</v>
       </c>
       <c r="C97" t="n">
-        <v>3762.494105102623</v>
+        <v>9.041151132738677e-14</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.81216</v>
+        <v>4.371918106866407</v>
       </c>
       <c r="C98" t="n">
-        <v>3499.69877743323</v>
+        <v>8.302309332085887e-14</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.81527</v>
+        <v>4.375088957987725</v>
       </c>
       <c r="C99" t="n">
-        <v>3437.291858389703</v>
+        <v>8.011644977684786e-14</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.820058</v>
+        <v>4.377745617035317</v>
       </c>
       <c r="C100" t="n">
-        <v>3285.519191336507</v>
+        <v>8.083193879451413e-14</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.829886</v>
+        <v>4.379545289293363</v>
       </c>
       <c r="C101" t="n">
-        <v>3125.650641252071</v>
+        <v>7.606392896596791e-14</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.85003</v>
+        <v>4.380487974761863</v>
       </c>
       <c r="C102" t="n">
-        <v>3268.321082638473</v>
+        <v>7.559052927451161e-14</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.866293</v>
+        <v>4.380830769477681</v>
       </c>
       <c r="C103" t="n">
-        <v>4006.518682213016</v>
+        <v>7.603520740229254e-14</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.889892</v>
+        <v>4.381087865514544</v>
       </c>
       <c r="C104" t="n">
-        <v>5748.734990443575</v>
+        <v>7.498593537212968e-14</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.899914</v>
+        <v>4.382973236451544</v>
       </c>
       <c r="C105" t="n">
-        <v>8312.689316117923</v>
+        <v>7.275533747543074e-14</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.910130000000001</v>
+        <v>4.384687210030635</v>
       </c>
       <c r="C106" t="n">
-        <v>10379.73299445034</v>
+        <v>7.023335339724712e-14</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.919957</v>
+        <v>4.386401183609727</v>
       </c>
       <c r="C107" t="n">
-        <v>13069.13656944714</v>
+        <v>6.867627911438196e-14</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.926154</v>
+        <v>4.388029458509863</v>
       </c>
       <c r="C108" t="n">
-        <v>15741.05560119825</v>
+        <v>6.387899538528946e-14</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.930194999999999</v>
+        <v>4.389057842657317</v>
       </c>
       <c r="C109" t="n">
-        <v>16635.78705237867</v>
+        <v>6.395888936414255e-14</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.936923</v>
+        <v>4.389743432088954</v>
       </c>
       <c r="C110" t="n">
-        <v>19951.80115552316</v>
+        <v>6.487513547604922e-14</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.946745</v>
+        <v>4.392314392457591</v>
       </c>
       <c r="C111" t="n">
-        <v>23181.96615774388</v>
+        <v>6.326335884804176e-14</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.950269</v>
+        <v>4.396599326405318</v>
       </c>
       <c r="C112" t="n">
-        <v>22975.03948112805</v>
+        <v>5.454289890655461e-14</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.956763</v>
+        <v>4.400884260353045</v>
       </c>
       <c r="C113" t="n">
-        <v>24850.6771744937</v>
+        <v>4.692878166767789e-14</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.961869</v>
+        <v>4.404912098263909</v>
       </c>
       <c r="C114" t="n">
-        <v>24691.52602907441</v>
+        <v>4.326057692951024e-14</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.964748</v>
+        <v>4.406111879769273</v>
       </c>
       <c r="C115" t="n">
-        <v>24133.61073636261</v>
+        <v>4.175139222573824e-14</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.967875</v>
+        <v>4.4094541282485</v>
       </c>
       <c r="C116" t="n">
-        <v>23327.70780839564</v>
+        <v>5.12760832583072e-14</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.970043</v>
+        <v>4.413824760875183</v>
       </c>
       <c r="C117" t="n">
-        <v>23063.88764310752</v>
+        <v>8.578884754613303e-14</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.9728</v>
+        <v>4.41622432388591</v>
       </c>
       <c r="C118" t="n">
-        <v>21590.10567505364</v>
+        <v>1.023130898829224e-13</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.974629</v>
+        <v>4.418795284254546</v>
       </c>
       <c r="C119" t="n">
-        <v>20823.94877327215</v>
+        <v>1.076342299540346e-13</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.984706</v>
+        <v>4.421623340660047</v>
       </c>
       <c r="C120" t="n">
-        <v>16192.67276366154</v>
+        <v>1.07672694070253e-13</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.990074</v>
+        <v>4.423337314239138</v>
       </c>
       <c r="C121" t="n">
-        <v>14572.51869378228</v>
+        <v>1.097076097891832e-13</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.994669</v>
+        <v>4.424194301028683</v>
       </c>
       <c r="C122" t="n">
-        <v>11962.15800328989</v>
+        <v>1.096150681302561e-13</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.004642</v>
+        <v>4.429336221765956</v>
       </c>
       <c r="C123" t="n">
-        <v>8790.367064901138</v>
+        <v>1.025809439758646e-13</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.00999</v>
+        <v>4.431392990060865</v>
       </c>
       <c r="C124" t="n">
-        <v>7794.643432589113</v>
+        <v>9.371368360315783e-14</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.014843</v>
+        <v>4.440477050030048</v>
       </c>
       <c r="C125" t="n">
-        <v>6533.287667101212</v>
+        <v>5.612274360950008e-14</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.017737</v>
+        <v>4.457445388463049</v>
       </c>
       <c r="C126" t="n">
-        <v>6115.091054804152</v>
+        <v>3.349452558236594e-14</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.017861</v>
+        <v>4.474756521611869</v>
       </c>
       <c r="C127" t="n">
-        <v>6130.661012541779</v>
+        <v>2.811481325771377e-14</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.019822</v>
+        <v>4.491896257402779</v>
       </c>
       <c r="C128" t="n">
-        <v>6010.644426346197</v>
+        <v>2.910834990168292e-14</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.024805000000001</v>
+        <v>4.500037631903461</v>
       </c>
       <c r="C129" t="n">
-        <v>5665.285441873401</v>
+        <v>3.928075173303039e-14</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.027826</v>
+        <v>4.503122784345824</v>
       </c>
       <c r="C130" t="n">
-        <v>5619.483473574832</v>
+        <v>4.28698712132903e-14</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.030101</v>
+        <v>4.509121691872643</v>
       </c>
       <c r="C131" t="n">
-        <v>5596.897973207072</v>
+        <v>6.236969939761099e-14</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.032781</v>
+        <v>4.517520162410189</v>
       </c>
       <c r="C132" t="n">
-        <v>6168.884464749404</v>
+        <v>7.916140359293381e-14</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.035899</v>
+        <v>4.521890795036872</v>
       </c>
       <c r="C133" t="n">
-        <v>6604.512949709257</v>
+        <v>8.102043596436101e-14</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.038705999999999</v>
+        <v>4.526175728984599</v>
       </c>
       <c r="C134" t="n">
-        <v>6837.338585075106</v>
+        <v>7.572405024285271e-14</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.041981</v>
+        <v>4.530460662932327</v>
       </c>
       <c r="C135" t="n">
-        <v>6784.905090140996</v>
+        <v>6.622975060736849e-14</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.044789</v>
+        <v>4.534574199522145</v>
       </c>
       <c r="C136" t="n">
-        <v>6536.794913447399</v>
+        <v>5.764801994509998e-14</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.049971</v>
+        <v>4.539030530827781</v>
       </c>
       <c r="C137" t="n">
-        <v>6037.855988589251</v>
+        <v>4.798487529750206e-14</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.054843</v>
+        <v>4.543486862133419</v>
       </c>
       <c r="C138" t="n">
-        <v>5048.15429537399</v>
+        <v>4.344583830766607e-14</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.064876</v>
+        <v>4.545800726465191</v>
       </c>
       <c r="C139" t="n">
-        <v>2985.492520074148</v>
+        <v>4.282547315632411e-14</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.069912</v>
+        <v>4.549914263055009</v>
       </c>
       <c r="C140" t="n">
-        <v>2442.971939992836</v>
+        <v>4.029558546608869e-14</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.074481</v>
+        <v>4.551628236634101</v>
       </c>
       <c r="C141" t="n">
-        <v>1911.537592336026</v>
+        <v>3.98332878129606e-14</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.084189</v>
+        <v>4.553942100965873</v>
       </c>
       <c r="C142" t="n">
-        <v>1399.446195947534</v>
+        <v>3.80153894117403e-14</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.089986</v>
+        <v>4.558912624345237</v>
       </c>
       <c r="C143" t="n">
-        <v>1270.238748303036</v>
+        <v>4.08480180002094e-14</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.093717</v>
+        <v>4.562940462256101</v>
       </c>
       <c r="C144" t="n">
-        <v>1219.703952517601</v>
+        <v>4.601427035928754e-14</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.09676</v>
+        <v>4.56688260148801</v>
       </c>
       <c r="C145" t="n">
-        <v>1229.587458073756</v>
+        <v>5.07352830890721e-14</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.098893</v>
+        <v>4.571424631472602</v>
       </c>
       <c r="C146" t="n">
-        <v>1157.961515254058</v>
+        <v>5.601133520544146e-14</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.099991</v>
+        <v>4.575623866741375</v>
       </c>
       <c r="C147" t="n">
-        <v>1150.341515280541</v>
+        <v>6.320611022359047e-14</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.100430999999999</v>
+        <v>4.580080198047011</v>
       </c>
       <c r="C148" t="n">
-        <v>1149.227578091948</v>
+        <v>6.814256894545721e-14</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.100713</v>
+        <v>4.58402233727892</v>
       </c>
       <c r="C149" t="n">
-        <v>1142.433768416234</v>
+        <v>6.531995272170753e-14</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.102879</v>
+        <v>4.588478668584557</v>
       </c>
       <c r="C150" t="n">
-        <v>1110.049853787736</v>
+        <v>5.775392726684804e-14</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.104856</v>
+        <v>4.588650065942466</v>
       </c>
       <c r="C151" t="n">
-        <v>1073.877163552458</v>
+        <v>5.673429583163796e-14</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.106897</v>
+        <v>4.592078013100648</v>
       </c>
       <c r="C152" t="n">
-        <v>1063.586298958881</v>
+        <v>4.96043423675747e-14</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.108781</v>
+        <v>4.593277794606012</v>
       </c>
       <c r="C153" t="n">
-        <v>953.024816580672</v>
+        <v>4.729924377991437e-14</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.110037</v>
+        <v>4.593534890642876</v>
       </c>
       <c r="C154" t="n">
-        <v>957.4479743489503</v>
+        <v>4.609447484978168e-14</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.11075</v>
+        <v>4.596534344406285</v>
       </c>
       <c r="C155" t="n">
-        <v>962.8818451959958</v>
+        <v>5.734521403463647e-14</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.113839</v>
+        <v>4.597819824590603</v>
       </c>
       <c r="C156" t="n">
-        <v>941.0122292703633</v>
+        <v>5.005455556102942e-14</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.118804</v>
+        <v>4.601504867785649</v>
       </c>
       <c r="C157" t="n">
-        <v>808.8266323675474</v>
+        <v>5.178117153999504e-14</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.123773</v>
+        <v>4.603133142685785</v>
       </c>
       <c r="C158" t="n">
-        <v>687.5124685746911</v>
+        <v>4.674489870038666e-14</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.128523</v>
+        <v>4.604932814943831</v>
       </c>
       <c r="C159" t="n">
-        <v>631.7193004705111</v>
+        <v>4.35026199641153e-14</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.129939</v>
+        <v>4.606646788522922</v>
       </c>
       <c r="C160" t="n">
-        <v>611.3064245890698</v>
+        <v>4.105270911171455e-14</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.133811</v>
+        <v>4.608446460780968</v>
       </c>
       <c r="C161" t="n">
-        <v>740.6386529836404</v>
+        <v>3.772921425608182e-14</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.138881</v>
+        <v>4.610160434360059</v>
       </c>
       <c r="C162" t="n">
-        <v>1259.751753688457</v>
+        <v>3.501659076838916e-14</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.141653</v>
+        <v>4.611617311902286</v>
       </c>
       <c r="C163" t="n">
-        <v>1511.904917431876</v>
+        <v>3.552855621277854e-14</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.144741000000001</v>
+        <v>4.615987944528968</v>
       </c>
       <c r="C164" t="n">
-        <v>1583.390886754437</v>
+        <v>1.807736099793368e-14</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.147988</v>
+        <v>4.620529974513559</v>
       </c>
       <c r="C165" t="n">
-        <v>1586.546822078768</v>
+        <v>7.347594169713387e-15</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.150005999999999</v>
+        <v>4.622929537524286</v>
       </c>
       <c r="C166" t="n">
-        <v>1599.608312534462</v>
+        <v>4.392024958638594e-15</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.150983</v>
+        <v>4.623272332240105</v>
       </c>
       <c r="C167" t="n">
-        <v>1604.620894603253</v>
+        <v>6.31540919955442e-15</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.15704</v>
+        <v>4.623786524313832</v>
       </c>
       <c r="C168" t="n">
-        <v>1498.593134789393</v>
+        <v>3.925888812576588e-15</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.159375</v>
+        <v>4.625586196571877</v>
       </c>
       <c r="C169" t="n">
-        <v>1361.367308926819</v>
+        <v>3.122540995270534e-15</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.170048</v>
+        <v>4.628928445051105</v>
       </c>
       <c r="C170" t="n">
-        <v>804.4468741975456</v>
+        <v>2.589512873071613e-15</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.189844</v>
+        <v>4.631670802777651</v>
       </c>
       <c r="C171" t="n">
-        <v>469.2118995189506</v>
+        <v>2.585035866773215e-15</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.210028</v>
+        <v>4.64049776670997</v>
       </c>
       <c r="C172" t="n">
-        <v>382.7299858054649</v>
+        <v>3.647834340644047e-15</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.230028</v>
+        <v>4.649667525358106</v>
       </c>
       <c r="C173" t="n">
-        <v>396.0406914925304</v>
+        <v>6.421853973511001e-15</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.239501000000001</v>
+        <v>4.658494489290425</v>
       </c>
       <c r="C174" t="n">
-        <v>528.4112741310283</v>
+        <v>6.858219731562639e-15</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.243064</v>
+        <v>4.667921343975426</v>
       </c>
       <c r="C175" t="n">
-        <v>575.6905153165681</v>
+        <v>5.694680193475533e-15</v>
       </c>
     </row>
     <row r="176">
@@ -2297,527 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.250129</v>
+        <v>4.671263592454653</v>
       </c>
       <c r="C176" t="n">
-        <v>840.6055156556937</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>5.25994</v>
-      </c>
-      <c r="C177" t="n">
-        <v>1069.764899059955</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>5.26504</v>
-      </c>
-      <c r="C178" t="n">
-        <v>1076.232333110979</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>5.269983</v>
-      </c>
-      <c r="C179" t="n">
-        <v>1008.819267277243</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>5.27496</v>
-      </c>
-      <c r="C180" t="n">
-        <v>884.8129463224187</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5.275024</v>
-      </c>
-      <c r="C181" t="n">
-        <v>878.0509635646105</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>5.279812000000001</v>
-      </c>
-      <c r="C182" t="n">
-        <v>766.3702411699377</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>5.284953</v>
-      </c>
-      <c r="C183" t="n">
-        <v>633.9357632080958</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>5.290161</v>
-      </c>
-      <c r="C184" t="n">
-        <v>566.342309151572</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>5.292942</v>
-      </c>
-      <c r="C185" t="n">
-        <v>551.3634804762302</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>5.297674</v>
-      </c>
-      <c r="C186" t="n">
-        <v>529.8880940688828</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>5.299721</v>
-      </c>
-      <c r="C187" t="n">
-        <v>518.1121920458032</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>5.302376000000001</v>
-      </c>
-      <c r="C188" t="n">
-        <v>480.2593370512784</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>5.308233</v>
-      </c>
-      <c r="C189" t="n">
-        <v>521.8263416519945</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>5.312876</v>
-      </c>
-      <c r="C190" t="n">
-        <v>587.3581336162983</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>5.317521</v>
-      </c>
-      <c r="C191" t="n">
-        <v>648.8757102589132</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>5.322808999999999</v>
-      </c>
-      <c r="C192" t="n">
-        <v>713.015236779974</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>5.327683</v>
-      </c>
-      <c r="C193" t="n">
-        <v>806.2837600516795</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>5.33288</v>
-      </c>
-      <c r="C194" t="n">
-        <v>887.3086552969081</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>5.332912</v>
-      </c>
-      <c r="C195" t="n">
-        <v>845.6700160680758</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>5.337469</v>
-      </c>
-      <c r="C196" t="n">
-        <v>830.7201986727425</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>5.342735</v>
-      </c>
-      <c r="C197" t="n">
-        <v>728.0689857828282</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>5.342928</v>
-      </c>
-      <c r="C198" t="n">
-        <v>714.338176273429</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>5.346943</v>
-      </c>
-      <c r="C199" t="n">
-        <v>621.5019063107699</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>5.348261</v>
-      </c>
-      <c r="C200" t="n">
-        <v>591.5458266333911</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>5.348582</v>
-      </c>
-      <c r="C201" t="n">
-        <v>575.6136093375293</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>5.352053</v>
-      </c>
-      <c r="C202" t="n">
-        <v>718.9347927184544</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>5.353596</v>
-      </c>
-      <c r="C203" t="n">
-        <v>622.9069882160763</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>5.357905000000001</v>
-      </c>
-      <c r="C204" t="n">
-        <v>643.2358807126691</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>5.359834999999999</v>
-      </c>
-      <c r="C205" t="n">
-        <v>579.1969810502097</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>5.361894</v>
-      </c>
-      <c r="C206" t="n">
-        <v>537.6354797804433</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>5.363857</v>
-      </c>
-      <c r="C207" t="n">
-        <v>504.9253048118043</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>5.366045</v>
-      </c>
-      <c r="C208" t="n">
-        <v>468.4878215511991</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>5.368041000000001</v>
-      </c>
-      <c r="C209" t="n">
-        <v>429.4387361074133</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>5.369651</v>
-      </c>
-      <c r="C210" t="n">
-        <v>432.4921369856423</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>5.374804</v>
-      </c>
-      <c r="C211" t="n">
-        <v>216.6314123881405</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>5.380088</v>
-      </c>
-      <c r="C212" t="n">
-        <v>86.79479688383553</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>5.382924</v>
-      </c>
-      <c r="C213" t="n">
-        <v>52.99692658229355</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>5.383343</v>
-      </c>
-      <c r="C214" t="n">
-        <v>74.71932632220592</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>5.383858999999999</v>
-      </c>
-      <c r="C215" t="n">
-        <v>46.32333524037939</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>5.385955</v>
-      </c>
-      <c r="C216" t="n">
-        <v>37.17389715289545</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>5.389858</v>
-      </c>
-      <c r="C217" t="n">
-        <v>30.94410588859898</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>5.393084</v>
-      </c>
-      <c r="C218" t="n">
-        <v>31.02146408041215</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>5.403415</v>
-      </c>
-      <c r="C219" t="n">
-        <v>42.07653179633819</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>5.414078</v>
-      </c>
-      <c r="C220" t="n">
-        <v>74.03660649646855</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>5.424364</v>
-      </c>
-      <c r="C221" t="n">
-        <v>78.27708099761767</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>5.435405</v>
-      </c>
-      <c r="C222" t="n">
-        <v>64.69232568398202</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>5.439261</v>
-      </c>
-      <c r="C223" t="n">
-        <v>56.46462461814735</v>
+        <v>4.990853487162538e-15</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints2.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints2.000000.xlsx
@@ -386,7 +386,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>1.908864000236831e-13</v>
+        <v>9.988600854371035e-14</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.772113052863507</v>
       </c>
       <c r="C3" t="n">
-        <v>2.235079554431933e-13</v>
+        <v>1.386472263328501e-13</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.789167089975462</v>
       </c>
       <c r="C4" t="n">
-        <v>3.043474516647244e-13</v>
+        <v>2.171729488938471e-13</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.797908355228826</v>
       </c>
       <c r="C5" t="n">
-        <v>4.263853161840113e-13</v>
+        <v>3.522204684929284e-13</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.806478223124282</v>
       </c>
       <c r="C6" t="n">
-        <v>5.583451218980934e-13</v>
+        <v>5.015583225745542e-13</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.814876693661827</v>
       </c>
       <c r="C7" t="n">
-        <v>1.093492357686154e-12</v>
+        <v>1.002905146914343e-12</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.823360862878328</v>
       </c>
       <c r="C8" t="n">
-        <v>1.771911744651617e-12</v>
+        <v>1.719478469062723e-12</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.82773149550501</v>
       </c>
       <c r="C9" t="n">
-        <v>4.669285534680923e-12</v>
+        <v>4.558742232046206e-12</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.832102128131692</v>
       </c>
       <c r="C10" t="n">
-        <v>7.353381052049341e-12</v>
+        <v>7.199405873372153e-12</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.840586297348192</v>
       </c>
       <c r="C11" t="n">
-        <v>7.776989686286586e-12</v>
+        <v>7.719060169298052e-12</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.847442191664556</v>
       </c>
       <c r="C12" t="n">
-        <v>6.018600128492905e-12</v>
+        <v>5.939924436479226e-12</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.854383784659876</v>
       </c>
       <c r="C13" t="n">
-        <v>3.000542294719203e-12</v>
+        <v>2.971453053563652e-12</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.856183456917921</v>
       </c>
       <c r="C14" t="n">
-        <v>2.295535148853694e-12</v>
+        <v>2.227939319482649e-12</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.857811731818057</v>
       </c>
       <c r="C15" t="n">
-        <v>2.879113822755012e-12</v>
+        <v>2.842890331799821e-12</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.859611404076103</v>
       </c>
       <c r="C16" t="n">
-        <v>1.276082839981331e-12</v>
+        <v>1.21801405963158e-12</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.86201096708683</v>
       </c>
       <c r="C17" t="n">
-        <v>8.944986007406843e-13</v>
+        <v>8.547735128353586e-13</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.866295901034558</v>
       </c>
       <c r="C18" t="n">
-        <v>5.119574103848762e-13</v>
+        <v>4.428780753994123e-13</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.875037166287922</v>
       </c>
       <c r="C19" t="n">
-        <v>2.66531406469766e-13</v>
+        <v>2.155491843384105e-13</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.876751139867013</v>
       </c>
       <c r="C20" t="n">
-        <v>2.021440903106295e-13</v>
+        <v>1.623834692592193e-13</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.879236401556695</v>
       </c>
       <c r="C21" t="n">
-        <v>1.990738815530962e-13</v>
+        <v>1.512198547152895e-13</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.883521335504422</v>
       </c>
       <c r="C22" t="n">
-        <v>2.396879150319705e-13</v>
+        <v>2.037375143715124e-13</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.887891968131104</v>
       </c>
       <c r="C23" t="n">
-        <v>2.944778197517472e-13</v>
+        <v>2.793533585123516e-13</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.891491312647195</v>
       </c>
       <c r="C24" t="n">
-        <v>2.787884290186708e-13</v>
+        <v>2.34730136620704e-13</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.896376137347605</v>
       </c>
       <c r="C25" t="n">
-        <v>5.613379820613685e-13</v>
+        <v>4.869000339020769e-13</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.900746769974288</v>
       </c>
       <c r="C26" t="n">
-        <v>8.55741497082966e-13</v>
+        <v>7.579770583674807e-13</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.908973843153924</v>
       </c>
       <c r="C27" t="n">
-        <v>1.907286328492611e-12</v>
+        <v>1.889563521664769e-12</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.917886505765197</v>
       </c>
       <c r="C28" t="n">
-        <v>4.626676248393938e-12</v>
+        <v>4.599038471884651e-12</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.926370674981698</v>
       </c>
       <c r="C29" t="n">
-        <v>4.377744835009447e-12</v>
+        <v>4.321803738667008e-12</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.934854844198199</v>
       </c>
       <c r="C30" t="n">
-        <v>2.234827676105486e-12</v>
+        <v>2.221270903615991e-12</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.943510410772608</v>
       </c>
       <c r="C31" t="n">
-        <v>1.134022283015306e-12</v>
+        <v>1.094192948920574e-12</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.952251676025972</v>
       </c>
       <c r="C32" t="n">
-        <v>5.467052730448143e-13</v>
+        <v>5.23205886441221e-13</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.960564447884564</v>
       </c>
       <c r="C33" t="n">
-        <v>5.343725269432848e-13</v>
+        <v>5.084948587110051e-13</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.969305713137928</v>
       </c>
       <c r="C34" t="n">
-        <v>3.51216841266768e-13</v>
+        <v>3.610787790622373e-13</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.977618484996519</v>
       </c>
       <c r="C35" t="n">
-        <v>3.137345475192941e-13</v>
+        <v>2.407029332219922e-13</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.982160514981111</v>
       </c>
       <c r="C36" t="n">
-        <v>1.845640834625003e-13</v>
+        <v>1.810932945913056e-13</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.986274051570929</v>
       </c>
       <c r="C37" t="n">
-        <v>2.177990736666162e-13</v>
+        <v>2.107759626555871e-13</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.994843919466384</v>
       </c>
       <c r="C38" t="n">
-        <v>4.436451791398216e-13</v>
+        <v>4.362565224301403e-13</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>4.012069353936249</v>
       </c>
       <c r="C39" t="n">
-        <v>2.712055119901117e-13</v>
+        <v>2.66550184649315e-13</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>4.020724920510658</v>
       </c>
       <c r="C40" t="n">
-        <v>1.164509693672276e-13</v>
+        <v>1.067643189055237e-13</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>4.02903769236925</v>
       </c>
       <c r="C41" t="n">
-        <v>9.996412115922672e-14</v>
+        <v>8.7632457958222e-14</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>4.046263126839114</v>
       </c>
       <c r="C42" t="n">
-        <v>8.189540523666402e-14</v>
+        <v>7.613179423256915e-14</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>4.063402862630025</v>
       </c>
       <c r="C43" t="n">
-        <v>9.146885453275866e-14</v>
+        <v>8.362024591249831e-14</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>4.080542598420934</v>
       </c>
       <c r="C44" t="n">
-        <v>1.54974640793438e-13</v>
+        <v>1.520215940959658e-13</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>4.084998929726572</v>
       </c>
       <c r="C45" t="n">
-        <v>3.422040040157333e-13</v>
+        <v>3.373799636553398e-13</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>4.08816978084789</v>
       </c>
       <c r="C46" t="n">
-        <v>3.785461482779918e-13</v>
+        <v>3.732596225496103e-13</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>4.097682334211846</v>
       </c>
       <c r="C47" t="n">
-        <v>4.207027320728309e-13</v>
+        <v>4.206551015213705e-13</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>4.101967268159573</v>
       </c>
       <c r="C48" t="n">
-        <v>4.21591836982485e-13</v>
+        <v>4.198062493415285e-13</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>4.106423599465209</v>
       </c>
       <c r="C49" t="n">
-        <v>3.63563133944576e-13</v>
+        <v>3.586508385783041e-13</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>4.114907768681709</v>
       </c>
       <c r="C50" t="n">
-        <v>3.10375183610726e-13</v>
+        <v>3.054527251101152e-13</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>4.123306239219255</v>
       </c>
       <c r="C51" t="n">
-        <v>2.241869200710612e-13</v>
+        <v>2.253847834398608e-13</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>4.131961805793665</v>
       </c>
       <c r="C52" t="n">
-        <v>1.98101299598395e-13</v>
+        <v>1.962660385686514e-13</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>4.133847176730665</v>
       </c>
       <c r="C53" t="n">
-        <v>1.82591220344967e-13</v>
+        <v>1.846177607285785e-13</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>4.136503835778257</v>
       </c>
       <c r="C54" t="n">
-        <v>1.797083630639377e-13</v>
+        <v>1.76817111632918e-13</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>4.140617372368075</v>
       </c>
       <c r="C55" t="n">
-        <v>1.719265630611982e-13</v>
+        <v>1.648669372313988e-13</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>4.149015842905621</v>
       </c>
       <c r="C56" t="n">
-        <v>1.644906847039378e-13</v>
+        <v>1.583071357550016e-13</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>4.166241277375486</v>
       </c>
       <c r="C57" t="n">
-        <v>1.747452570119354e-13</v>
+        <v>1.722110290930557e-13</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>4.180210162045077</v>
       </c>
       <c r="C58" t="n">
-        <v>2.173685479394201e-13</v>
+        <v>2.143166791828797e-13</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>4.200435050278351</v>
       </c>
       <c r="C59" t="n">
-        <v>3.159853097655155e-13</v>
+        <v>3.160801841473329e-13</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>4.209004918173807</v>
       </c>
       <c r="C60" t="n">
-        <v>4.534795911332961e-13</v>
+        <v>4.558415329835198e-13</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>4.21774618342717</v>
       </c>
       <c r="C61" t="n">
-        <v>5.729410250607284e-13</v>
+        <v>5.753142599075817e-13</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>4.226230352643671</v>
       </c>
       <c r="C62" t="n">
-        <v>7.250136225846095e-13</v>
+        <v>7.268753970834776e-13</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>4.231543670738853</v>
       </c>
       <c r="C63" t="n">
-        <v>8.75882857013642e-13</v>
+        <v>8.799313447532294e-13</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>4.234971617897036</v>
       </c>
       <c r="C64" t="n">
-        <v>9.276479444411397e-13</v>
+        <v>9.292226538669499e-13</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>4.24071342938699</v>
       </c>
       <c r="C65" t="n">
-        <v>1.119805156044981e-12</v>
+        <v>1.120893515695699e-12</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>4.249111899924536</v>
       </c>
       <c r="C66" t="n">
-        <v>1.308345003282985e-12</v>
+        <v>1.315279079704115e-12</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>4.2521970523669</v>
       </c>
       <c r="C67" t="n">
-        <v>1.302483054974407e-12</v>
+        <v>1.306517095791001e-12</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>4.257767466498946</v>
       </c>
       <c r="C68" t="n">
-        <v>1.413052678750504e-12</v>
+        <v>1.428848491359061e-12</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>4.262138099125628</v>
       </c>
       <c r="C69" t="n">
-        <v>1.411075761182943e-12</v>
+        <v>1.414587665767752e-12</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>4.264537662136355</v>
       </c>
       <c r="C70" t="n">
-        <v>1.384001658241775e-12</v>
+        <v>1.393460417487589e-12</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>4.267280019862901</v>
       </c>
       <c r="C71" t="n">
-        <v>1.34023428789023e-12</v>
+        <v>1.346421472897993e-12</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>4.269079692120946</v>
       </c>
       <c r="C72" t="n">
-        <v>1.325995298618534e-12</v>
+        <v>1.328391468280962e-12</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>4.271479255131674</v>
       </c>
       <c r="C73" t="n">
-        <v>1.243154204504919e-12</v>
+        <v>1.255534817454797e-12</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>4.273021831352856</v>
       </c>
       <c r="C74" t="n">
-        <v>1.203400807677799e-12</v>
+        <v>1.207999749722027e-12</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>4.281677397927266</v>
       </c>
       <c r="C75" t="n">
-        <v>9.444267497686816e-13</v>
+        <v>9.524721363768861e-13</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>4.286305126590811</v>
       </c>
       <c r="C76" t="n">
-        <v>8.547527849416958e-13</v>
+        <v>8.550301180420679e-13</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>4.29024726582272</v>
       </c>
       <c r="C77" t="n">
-        <v>7.036957111468138e-13</v>
+        <v>7.059917792856021e-13</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>4.298731435039221</v>
       </c>
       <c r="C78" t="n">
-        <v>5.215328748429179e-13</v>
+        <v>5.247628962230246e-13</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>4.303359163702766</v>
       </c>
       <c r="C79" t="n">
-        <v>4.654708071944446e-13</v>
+        <v>4.678198060915919e-13</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>4.307472700292585</v>
       </c>
       <c r="C80" t="n">
-        <v>3.924154556805463e-13</v>
+        <v>3.932979926517018e-13</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>4.309957961982268</v>
       </c>
       <c r="C81" t="n">
-        <v>3.680863835597706e-13</v>
+        <v>3.697000873145581e-13</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>4.310129359340176</v>
       </c>
       <c r="C82" t="n">
-        <v>3.695691568484647e-13</v>
+        <v>3.705035314921999e-13</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>4.311757634240313</v>
       </c>
       <c r="C83" t="n">
-        <v>3.629773612986736e-13</v>
+        <v>3.641564318948027e-13</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>4.31604256818804</v>
       </c>
       <c r="C84" t="n">
-        <v>3.429941756628748e-13</v>
+        <v>3.437529906304002e-13</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>4.318613528556677</v>
       </c>
       <c r="C85" t="n">
-        <v>3.415221191362752e-13</v>
+        <v>3.419885829356208e-13</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>4.320584598172632</v>
       </c>
       <c r="C86" t="n">
-        <v>3.419679266472711e-13</v>
+        <v>3.422170751697678e-13</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>4.322898462504404</v>
       </c>
       <c r="C87" t="n">
-        <v>3.745366032821196e-13</v>
+        <v>3.760084085040565e-13</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>4.325555121551995</v>
       </c>
       <c r="C88" t="n">
-        <v>4.035751837058235e-13</v>
+        <v>4.0361504717582e-13</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>4.327954684562723</v>
       </c>
       <c r="C89" t="n">
-        <v>4.184169082659436e-13</v>
+        <v>4.181844704870682e-13</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>4.330782740968223</v>
       </c>
       <c r="C90" t="n">
-        <v>4.171290137632188e-13</v>
+        <v>4.172937982568405e-13</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>4.33318230397895</v>
       </c>
       <c r="C91" t="n">
-        <v>4.013975443066158e-13</v>
+        <v>4.026568201343854e-13</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>4.337638635284587</v>
       </c>
       <c r="C92" t="n">
-        <v>3.722529603783144e-13</v>
+        <v>3.719976996605963e-13</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>4.341752171874406</v>
       </c>
       <c r="C93" t="n">
-        <v>3.135248502396819e-13</v>
+        <v>3.151499250221851e-13</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>4.350407738448815</v>
       </c>
       <c r="C94" t="n">
-        <v>1.87610046500729e-13</v>
+        <v>1.88797985547103e-13</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>4.354692672396543</v>
       </c>
       <c r="C95" t="n">
-        <v>1.543570578358733e-13</v>
+        <v>1.559787207309571e-13</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>4.358634811628452</v>
       </c>
       <c r="C96" t="n">
-        <v>1.222085054181087e-13</v>
+        <v>1.228426394434289e-13</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>4.366947583487043</v>
       </c>
       <c r="C97" t="n">
-        <v>9.041151132738677e-14</v>
+        <v>9.09316611630179e-14</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>4.371918106866407</v>
       </c>
       <c r="C98" t="n">
-        <v>8.302309332085887e-14</v>
+        <v>8.315159045942284e-14</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>4.375088957987725</v>
       </c>
       <c r="C99" t="n">
-        <v>8.011644977684786e-14</v>
+        <v>8.014337636763558e-14</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>4.377745617035317</v>
       </c>
       <c r="C100" t="n">
-        <v>8.083193879451413e-14</v>
+        <v>8.036147541277637e-14</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>4.379545289293363</v>
       </c>
       <c r="C101" t="n">
-        <v>7.606392896596791e-14</v>
+        <v>7.555562162132724e-14</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>4.380487974761863</v>
       </c>
       <c r="C102" t="n">
-        <v>7.559052927451161e-14</v>
+        <v>7.56451428191867e-14</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>4.380830769477681</v>
       </c>
       <c r="C103" t="n">
-        <v>7.603520740229254e-14</v>
+        <v>7.548533232784505e-14</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>4.381087865514544</v>
       </c>
       <c r="C104" t="n">
-        <v>7.498593537212968e-14</v>
+        <v>7.508901212879485e-14</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>4.382973236451544</v>
       </c>
       <c r="C105" t="n">
-        <v>7.275533747543074e-14</v>
+        <v>7.342347515270337e-14</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>4.384687210030635</v>
       </c>
       <c r="C106" t="n">
-        <v>7.023335339724712e-14</v>
+        <v>6.991940870507032e-14</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>4.386401183609727</v>
       </c>
       <c r="C107" t="n">
-        <v>6.867627911438196e-14</v>
+        <v>6.855343319453706e-14</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>4.388029458509863</v>
       </c>
       <c r="C108" t="n">
-        <v>6.387899538528946e-14</v>
+        <v>6.354527927595907e-14</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>4.389057842657317</v>
       </c>
       <c r="C109" t="n">
-        <v>6.395888936414255e-14</v>
+        <v>6.340263402194666e-14</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>4.389743432088954</v>
       </c>
       <c r="C110" t="n">
-        <v>6.487513547604922e-14</v>
+        <v>6.47910742408653e-14</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>4.392314392457591</v>
       </c>
       <c r="C111" t="n">
-        <v>6.326335884804176e-14</v>
+        <v>6.232773505297563e-14</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>4.396599326405318</v>
       </c>
       <c r="C112" t="n">
-        <v>5.454289890655461e-14</v>
+        <v>5.406430454059751e-14</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>4.400884260353045</v>
       </c>
       <c r="C113" t="n">
-        <v>4.692878166767789e-14</v>
+        <v>4.713193830653812e-14</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>4.404912098263909</v>
       </c>
       <c r="C114" t="n">
-        <v>4.326057692951024e-14</v>
+        <v>4.326297057154049e-14</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>4.406111879769273</v>
       </c>
       <c r="C115" t="n">
-        <v>4.175139222573824e-14</v>
+        <v>4.231253448762736e-14</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>4.4094541282485</v>
       </c>
       <c r="C116" t="n">
-        <v>5.12760832583072e-14</v>
+        <v>5.108938009539876e-14</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>4.413824760875183</v>
       </c>
       <c r="C117" t="n">
-        <v>8.578884754613303e-14</v>
+        <v>8.539669642275417e-14</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>4.41622432388591</v>
       </c>
       <c r="C118" t="n">
-        <v>1.023130898829224e-13</v>
+        <v>1.024029669032304e-13</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>4.418795284254546</v>
       </c>
       <c r="C119" t="n">
-        <v>1.076342299540346e-13</v>
+        <v>1.073436587328362e-13</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>4.421623340660047</v>
       </c>
       <c r="C120" t="n">
-        <v>1.07672694070253e-13</v>
+        <v>1.07532337365826e-13</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>4.423337314239138</v>
       </c>
       <c r="C121" t="n">
-        <v>1.097076097891832e-13</v>
+        <v>1.096107493085438e-13</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>4.424194301028683</v>
       </c>
       <c r="C122" t="n">
-        <v>1.096150681302561e-13</v>
+        <v>1.10024812843757e-13</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>4.429336221765956</v>
       </c>
       <c r="C123" t="n">
-        <v>1.025809439758646e-13</v>
+        <v>1.03152664864371e-13</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>4.431392990060865</v>
       </c>
       <c r="C124" t="n">
-        <v>9.371368360315783e-14</v>
+        <v>9.432485467377016e-14</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>4.440477050030048</v>
       </c>
       <c r="C125" t="n">
-        <v>5.612274360950008e-14</v>
+        <v>5.622939417309709e-14</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>4.457445388463049</v>
       </c>
       <c r="C126" t="n">
-        <v>3.349452558236594e-14</v>
+        <v>3.377642236634065e-14</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>4.474756521611869</v>
       </c>
       <c r="C127" t="n">
-        <v>2.811481325771377e-14</v>
+        <v>2.812916702606506e-14</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>4.491896257402779</v>
       </c>
       <c r="C128" t="n">
-        <v>2.910834990168292e-14</v>
+        <v>2.934657797136292e-14</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>4.500037631903461</v>
       </c>
       <c r="C129" t="n">
-        <v>3.928075173303039e-14</v>
+        <v>3.928926042909369e-14</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>4.503122784345824</v>
       </c>
       <c r="C130" t="n">
-        <v>4.28698712132903e-14</v>
+        <v>4.27766951133108e-14</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>4.509121691872643</v>
       </c>
       <c r="C131" t="n">
-        <v>6.236969939761099e-14</v>
+        <v>6.206024808793134e-14</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>4.517520162410189</v>
       </c>
       <c r="C132" t="n">
-        <v>7.916140359293381e-14</v>
+        <v>8.046382818087885e-14</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>4.521890795036872</v>
       </c>
       <c r="C133" t="n">
-        <v>8.102043596436101e-14</v>
+        <v>8.114002437076883e-14</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>4.526175728984599</v>
       </c>
       <c r="C134" t="n">
-        <v>7.572405024285271e-14</v>
+        <v>7.581565905008191e-14</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>4.530460662932327</v>
       </c>
       <c r="C135" t="n">
-        <v>6.622975060736849e-14</v>
+        <v>6.615128049365778e-14</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>4.534574199522145</v>
       </c>
       <c r="C136" t="n">
-        <v>5.764801994509998e-14</v>
+        <v>5.741613832094756e-14</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>4.539030530827781</v>
       </c>
       <c r="C137" t="n">
-        <v>4.798487529750206e-14</v>
+        <v>4.868142505067969e-14</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>4.543486862133419</v>
       </c>
       <c r="C138" t="n">
-        <v>4.344583830766607e-14</v>
+        <v>4.307942936484155e-14</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>4.545800726465191</v>
       </c>
       <c r="C139" t="n">
-        <v>4.282547315632411e-14</v>
+        <v>4.198132154036772e-14</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>4.549914263055009</v>
       </c>
       <c r="C140" t="n">
-        <v>4.029558546608869e-14</v>
+        <v>3.704724779643042e-14</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>4.551628236634101</v>
       </c>
       <c r="C141" t="n">
-        <v>3.98332878129606e-14</v>
+        <v>3.957559228209027e-14</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>4.553942100965873</v>
       </c>
       <c r="C142" t="n">
-        <v>3.80153894117403e-14</v>
+        <v>3.813410676158034e-14</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>4.558912624345237</v>
       </c>
       <c r="C143" t="n">
-        <v>4.08480180002094e-14</v>
+        <v>3.938018446029308e-14</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>4.562940462256101</v>
       </c>
       <c r="C144" t="n">
-        <v>4.601427035928754e-14</v>
+        <v>4.556409597315867e-14</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>4.56688260148801</v>
       </c>
       <c r="C145" t="n">
-        <v>5.07352830890721e-14</v>
+        <v>5.050306291151949e-14</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>4.571424631472602</v>
       </c>
       <c r="C146" t="n">
-        <v>5.601133520544146e-14</v>
+        <v>5.577043957929967e-14</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>4.575623866741375</v>
       </c>
       <c r="C147" t="n">
-        <v>6.320611022359047e-14</v>
+        <v>6.306593238269536e-14</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>4.580080198047011</v>
       </c>
       <c r="C148" t="n">
-        <v>6.814256894545721e-14</v>
+        <v>6.825836732235083e-14</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>4.58402233727892</v>
       </c>
       <c r="C149" t="n">
-        <v>6.531995272170753e-14</v>
+        <v>6.514296937782142e-14</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>4.588478668584557</v>
       </c>
       <c r="C150" t="n">
-        <v>5.775392726684804e-14</v>
+        <v>5.793691985214394e-14</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>4.588650065942466</v>
       </c>
       <c r="C151" t="n">
-        <v>5.673429583163796e-14</v>
+        <v>5.697192798664682e-14</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>4.592078013100648</v>
       </c>
       <c r="C152" t="n">
-        <v>4.96043423675747e-14</v>
+        <v>4.994795503122206e-14</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>4.593277794606012</v>
       </c>
       <c r="C153" t="n">
-        <v>4.729924377991437e-14</v>
+        <v>4.74230129405549e-14</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>4.593534890642876</v>
       </c>
       <c r="C154" t="n">
-        <v>4.609447484978168e-14</v>
+        <v>4.627784672863275e-14</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>4.596534344406285</v>
       </c>
       <c r="C155" t="n">
-        <v>5.734521403463647e-14</v>
+        <v>5.765769861493996e-14</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>4.597819824590603</v>
       </c>
       <c r="C156" t="n">
-        <v>5.005455556102942e-14</v>
+        <v>5.017101913822453e-14</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>4.601504867785649</v>
       </c>
       <c r="C157" t="n">
-        <v>5.178117153999504e-14</v>
+        <v>5.205673153462752e-14</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>4.603133142685785</v>
       </c>
       <c r="C158" t="n">
-        <v>4.674489870038666e-14</v>
+        <v>4.693863478116532e-14</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>4.604932814943831</v>
       </c>
       <c r="C159" t="n">
-        <v>4.35026199641153e-14</v>
+        <v>4.369334131323225e-14</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>4.606646788522922</v>
       </c>
       <c r="C160" t="n">
-        <v>4.105270911171455e-14</v>
+        <v>4.108336825176599e-14</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>4.608446460780968</v>
       </c>
       <c r="C161" t="n">
-        <v>3.772921425608182e-14</v>
+        <v>3.799468922870631e-14</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>4.610160434360059</v>
       </c>
       <c r="C162" t="n">
-        <v>3.501659076838916e-14</v>
+        <v>3.517440411661827e-14</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>4.611617311902286</v>
       </c>
       <c r="C163" t="n">
-        <v>3.552855621277854e-14</v>
+        <v>3.575216031241689e-14</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>4.615987944528968</v>
       </c>
       <c r="C164" t="n">
-        <v>1.807736099793368e-14</v>
+        <v>1.818067135590169e-14</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>4.620529974513559</v>
       </c>
       <c r="C165" t="n">
-        <v>7.347594169713387e-15</v>
+        <v>7.565938323664739e-15</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>4.622929537524286</v>
       </c>
       <c r="C166" t="n">
-        <v>4.392024958638594e-15</v>
+        <v>4.48703445646559e-15</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>4.623272332240105</v>
       </c>
       <c r="C167" t="n">
-        <v>6.31540919955442e-15</v>
+        <v>6.423589158567632e-15</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>4.623786524313832</v>
       </c>
       <c r="C168" t="n">
-        <v>3.925888812576588e-15</v>
+        <v>4.051813746117706e-15</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>4.625586196571877</v>
       </c>
       <c r="C169" t="n">
-        <v>3.122540995270534e-15</v>
+        <v>3.243389101532234e-15</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>4.628928445051105</v>
       </c>
       <c r="C170" t="n">
-        <v>2.589512873071613e-15</v>
+        <v>2.680836970063816e-15</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>4.631670802777651</v>
       </c>
       <c r="C171" t="n">
-        <v>2.585035866773215e-15</v>
+        <v>2.36606501829844e-15</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>4.64049776670997</v>
       </c>
       <c r="C172" t="n">
-        <v>3.647834340644047e-15</v>
+        <v>3.676178556161994e-15</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>4.649667525358106</v>
       </c>
       <c r="C173" t="n">
-        <v>6.421853973511001e-15</v>
+        <v>6.379355370369211e-15</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>4.658494489290425</v>
       </c>
       <c r="C174" t="n">
-        <v>6.858219731562639e-15</v>
+        <v>6.926170962190913e-15</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>4.667921343975426</v>
       </c>
       <c r="C175" t="n">
-        <v>5.694680193475533e-15</v>
+        <v>5.789598488943491e-15</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C176" t="n">
-        <v>4.990853487162538e-15</v>
+        <v>5.092313186880963e-15</v>
       </c>
     </row>
   </sheetData>
